--- a/TIA1ANOVASept22.xlsx
+++ b/TIA1ANOVASept22.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://conservation-my.sharepoint.com/personal/lmccullough_conservation_org/Documents/Documents/Trees_in_Agriculture/Trees_in_Agriculture_R_Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://conservation-my.sharepoint.com/personal/vgriffey_conservation_org/Documents/Documents/GitHub/Trees_in_Agriculture/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="29" documentId="8_{A0E8D73E-E403-443D-B06C-5E247609853C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA80AC5B-1A52-4897-89F0-9BBBA7F1FB3A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{CFD0B92A-4EF4-44FE-9538-22E78B83F755}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{CFD0B92A-4EF4-44FE-9538-22E78B83F755}"/>
   </bookViews>
   <sheets>
     <sheet name="AnovaData11" sheetId="22" r:id="rId1"/>
@@ -5018,23 +5018,23 @@
       <selection pane="bottomRight" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5" style="148" customWidth="1"/>
     <col min="2" max="2" width="5" style="151" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="148" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" style="148" customWidth="1"/>
     <col min="4" max="4" width="11" style="151" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" style="148" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" style="148" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="148" hidden="1" customWidth="1"/>
-    <col min="8" max="11" width="7.140625" style="151" customWidth="1"/>
-    <col min="12" max="12" width="11.140625" style="388" customWidth="1"/>
-    <col min="13" max="13" width="15.28515625" style="155" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="393"/>
-    <col min="15" max="16384" width="9.140625" style="151"/>
+    <col min="5" max="5" width="12.1796875" style="148" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="11.54296875" style="148" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7265625" style="148" hidden="1" customWidth="1"/>
+    <col min="8" max="11" width="7.1796875" style="151" customWidth="1"/>
+    <col min="12" max="12" width="11.1796875" style="388" customWidth="1"/>
+    <col min="13" max="13" width="15.26953125" style="155" customWidth="1"/>
+    <col min="14" max="14" width="9.1796875" style="393"/>
+    <col min="15" max="16384" width="9.1796875" style="151"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:97" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:97" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="148" t="s">
         <v>0</v>
       </c>
@@ -5078,7 +5078,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="2" spans="1:97" s="203" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:97" s="203" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="148">
         <v>14</v>
       </c>
@@ -5205,7 +5205,7 @@
       <c r="CR2" s="151"/>
       <c r="CS2" s="151"/>
     </row>
-    <row r="3" spans="1:97" s="203" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:97" s="203" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="148">
         <v>8</v>
       </c>
@@ -5333,7 +5333,7 @@
       <c r="CR3" s="151"/>
       <c r="CS3" s="151"/>
     </row>
-    <row r="4" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A4" s="148">
         <v>23</v>
       </c>
@@ -5461,7 +5461,7 @@
       <c r="CR4" s="203"/>
       <c r="CS4" s="203"/>
     </row>
-    <row r="5" spans="1:97" s="266" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:97" s="266" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="398" t="s">
         <v>113</v>
       </c>
@@ -5589,7 +5589,7 @@
       <c r="CR5" s="311"/>
       <c r="CS5" s="311"/>
     </row>
-    <row r="6" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A6" s="148">
         <v>22</v>
       </c>
@@ -5634,7 +5634,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="7" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A7" s="148">
         <v>21</v>
       </c>
@@ -5679,7 +5679,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="8" spans="1:97" s="372" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:97" s="372" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="399">
         <v>19</v>
       </c>
@@ -5722,7 +5722,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="9" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A9" s="148">
         <v>4</v>
       </c>
@@ -5850,7 +5850,7 @@
       <c r="CR9" s="311"/>
       <c r="CS9" s="311"/>
     </row>
-    <row r="10" spans="1:97" s="203" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:97" s="203" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="148">
         <v>29</v>
       </c>
@@ -5978,7 +5978,7 @@
       <c r="CR10" s="311"/>
       <c r="CS10" s="311"/>
     </row>
-    <row r="11" spans="1:97" s="369" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:97" s="369" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="400" t="s">
         <v>178</v>
       </c>
@@ -6106,7 +6106,7 @@
       <c r="CR11" s="368"/>
       <c r="CS11" s="368"/>
     </row>
-    <row r="12" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A12" s="148">
         <v>27</v>
       </c>
@@ -6151,7 +6151,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A13" s="148">
         <v>5</v>
       </c>
@@ -6196,7 +6196,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="14" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A14" s="148">
         <v>30</v>
       </c>
@@ -6241,7 +6241,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="15" spans="1:97" s="203" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:97" s="203" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="398" t="s">
         <v>301</v>
       </c>
@@ -6369,7 +6369,7 @@
       <c r="CR15" s="151"/>
       <c r="CS15" s="151"/>
     </row>
-    <row r="16" spans="1:97" s="266" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:97" s="266" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="148">
         <v>10</v>
       </c>
@@ -6497,7 +6497,7 @@
       <c r="CR16" s="151"/>
       <c r="CS16" s="151"/>
     </row>
-    <row r="17" spans="1:97" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:97" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="398" t="s">
         <v>299</v>
       </c>
@@ -6625,7 +6625,7 @@
       <c r="CR17" s="203"/>
       <c r="CS17" s="203"/>
     </row>
-    <row r="18" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A18" s="398" t="s">
         <v>306</v>
       </c>
@@ -6753,7 +6753,7 @@
       <c r="CR18" s="203"/>
       <c r="CS18" s="203"/>
     </row>
-    <row r="19" spans="1:97" s="372" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:97" s="372" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="401">
         <v>15</v>
       </c>
@@ -6881,7 +6881,7 @@
       <c r="CR19" s="368"/>
       <c r="CS19" s="368"/>
     </row>
-    <row r="20" spans="1:97" s="266" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:97" s="266" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="148">
         <v>28</v>
       </c>
@@ -7009,7 +7009,7 @@
       <c r="CR20" s="151"/>
       <c r="CS20" s="151"/>
     </row>
-    <row r="21" spans="1:97" s="311" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:97" s="311" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="148">
         <v>26</v>
       </c>
@@ -7137,7 +7137,7 @@
       <c r="CR21" s="151"/>
       <c r="CS21" s="151"/>
     </row>
-    <row r="22" spans="1:97" s="311" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:97" s="311" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="148">
         <v>16</v>
       </c>
@@ -7265,7 +7265,7 @@
       <c r="CR22" s="151"/>
       <c r="CS22" s="151"/>
     </row>
-    <row r="23" spans="1:97" s="203" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:97" s="203" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="148">
         <v>31</v>
       </c>
@@ -7393,7 +7393,7 @@
       <c r="CR23" s="151"/>
       <c r="CS23" s="151"/>
     </row>
-    <row r="24" spans="1:97" s="372" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:97" s="372" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="400" t="s">
         <v>252</v>
       </c>
@@ -7438,7 +7438,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="25" spans="1:97" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:97" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="148" t="s">
         <v>437</v>
       </c>
@@ -7483,7 +7483,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="26" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A26" s="148" t="s">
         <v>435</v>
       </c>
@@ -7611,7 +7611,7 @@
       <c r="CR26" s="266"/>
       <c r="CS26" s="266"/>
     </row>
-    <row r="27" spans="1:97" s="372" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:97" s="372" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="401">
         <v>19</v>
       </c>
@@ -7652,7 +7652,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="28" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A28" s="148">
         <v>15</v>
       </c>
@@ -7697,7 +7697,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="29" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A29" s="148" t="s">
         <v>440</v>
       </c>
@@ -7825,7 +7825,7 @@
       <c r="CR29" s="203"/>
       <c r="CS29" s="203"/>
     </row>
-    <row r="30" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A30" s="148">
         <v>30</v>
       </c>
@@ -7870,7 +7870,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="31" spans="1:97" s="372" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:97" s="372" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="401" t="s">
         <v>442</v>
       </c>
@@ -7915,7 +7915,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="32" spans="1:97" s="203" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:97" s="203" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="148" t="s">
         <v>443</v>
       </c>
@@ -8043,7 +8043,7 @@
       <c r="CR32" s="151"/>
       <c r="CS32" s="151"/>
     </row>
-    <row r="33" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A33" s="148" t="s">
         <v>457</v>
       </c>
@@ -8171,7 +8171,7 @@
       <c r="CR33" s="203"/>
       <c r="CS33" s="203"/>
     </row>
-    <row r="34" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A34" s="148">
         <v>20</v>
       </c>
@@ -8216,7 +8216,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="35" spans="1:97" s="372" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:97" s="372" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="401">
         <v>26</v>
       </c>
@@ -8261,7 +8261,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="36" spans="1:97" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:97" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="148">
         <v>18</v>
       </c>
@@ -8388,7 +8388,7 @@
       <c r="CR36" s="203"/>
       <c r="CS36" s="203"/>
     </row>
-    <row r="37" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A37" s="148">
         <v>24</v>
       </c>
@@ -8516,7 +8516,7 @@
       <c r="CR37" s="203"/>
       <c r="CS37" s="203"/>
     </row>
-    <row r="38" spans="1:97" s="203" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:97" s="203" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="148">
         <v>25</v>
       </c>
@@ -8644,7 +8644,7 @@
       <c r="CR38" s="151"/>
       <c r="CS38" s="151"/>
     </row>
-    <row r="39" spans="1:97" s="368" customFormat="1" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:97" s="368" customFormat="1" ht="23.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="399" t="s">
         <v>379</v>
       </c>
@@ -8772,7 +8772,7 @@
       <c r="CR39" s="376"/>
       <c r="CS39" s="376"/>
     </row>
-    <row r="40" spans="1:97" s="203" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:97" s="203" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="148">
         <v>12</v>
       </c>
@@ -8900,7 +8900,7 @@
       <c r="CR40" s="151"/>
       <c r="CS40" s="151"/>
     </row>
-    <row r="41" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A41" s="148">
         <v>13</v>
       </c>
@@ -9028,7 +9028,7 @@
       <c r="CR41" s="203"/>
       <c r="CS41" s="203"/>
     </row>
-    <row r="42" spans="1:97" s="294" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:97" s="294" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="375">
         <v>14</v>
       </c>
@@ -9072,7 +9072,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="43" spans="1:97" s="294" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:97" s="294" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="375">
         <v>8</v>
       </c>
@@ -9117,7 +9117,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="44" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A44" s="196">
         <v>23</v>
       </c>
@@ -9162,7 +9162,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="45" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A45" s="196">
         <v>21</v>
       </c>
@@ -9207,7 +9207,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="46" spans="1:97" s="372" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:97" s="372" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="401">
         <v>19</v>
       </c>
@@ -9248,7 +9248,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="47" spans="1:97" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:97" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="148" t="s">
         <v>416</v>
       </c>
@@ -9293,7 +9293,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="48" spans="1:97" s="203" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:97" s="203" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="148" t="s">
         <v>414</v>
       </c>
@@ -9421,7 +9421,7 @@
       <c r="CR48" s="151"/>
       <c r="CS48" s="151"/>
     </row>
-    <row r="49" spans="1:97" s="372" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:97" s="372" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="399">
         <v>6</v>
       </c>
@@ -9466,7 +9466,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="50" spans="1:97" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:97" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="148">
         <v>9</v>
       </c>
@@ -9594,7 +9594,7 @@
       <c r="CR50" s="266"/>
       <c r="CS50" s="266"/>
     </row>
-    <row r="51" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A51" s="148" t="s">
         <v>428</v>
       </c>
@@ -9722,7 +9722,7 @@
       <c r="CR51" s="203"/>
       <c r="CS51" s="203"/>
     </row>
-    <row r="52" spans="1:97" s="372" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:97" s="372" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="399" t="s">
         <v>431</v>
       </c>
@@ -9767,7 +9767,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="53" spans="1:97" s="203" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:97" s="203" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="148">
         <v>28</v>
       </c>
@@ -9895,7 +9895,7 @@
       <c r="CR53" s="151"/>
       <c r="CS53" s="151"/>
     </row>
-    <row r="54" spans="1:97" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:97" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="148" t="s">
         <v>433</v>
       </c>
@@ -9940,7 +9940,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="55" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A55" s="196">
         <v>16</v>
       </c>
@@ -9985,7 +9985,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="56" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A56" s="196">
         <v>31</v>
       </c>
@@ -10030,7 +10030,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="57" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:97" x14ac:dyDescent="0.35">
       <c r="C57" s="177"/>
       <c r="M57" s="386"/>
     </row>
@@ -10050,31 +10050,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D0825DC-B561-43D1-9000-61168B36E73C}">
   <dimension ref="A1:CU57"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="6" ySplit="1" topLeftCell="G37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomRight" activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="2" width="5" style="151" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" style="151" customWidth="1"/>
-    <col min="4" max="4" width="5.7109375" style="151" customWidth="1"/>
+    <col min="3" max="3" width="10.54296875" style="151" customWidth="1"/>
+    <col min="4" max="4" width="5.7265625" style="151" customWidth="1"/>
     <col min="5" max="5" width="27" style="151" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="151" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="151" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" style="151" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="151" customWidth="1"/>
-    <col min="10" max="13" width="7.140625" style="151" customWidth="1"/>
-    <col min="14" max="14" width="11.140625" style="71" customWidth="1"/>
-    <col min="15" max="15" width="15.28515625" style="151" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" style="40"/>
-    <col min="17" max="16384" width="9.140625" style="151"/>
+    <col min="6" max="6" width="8.7265625" style="151" customWidth="1"/>
+    <col min="7" max="7" width="12.1796875" style="151" customWidth="1"/>
+    <col min="8" max="8" width="11.54296875" style="151" customWidth="1"/>
+    <col min="9" max="9" width="14.7265625" style="151" customWidth="1"/>
+    <col min="10" max="13" width="7.1796875" style="151" customWidth="1"/>
+    <col min="14" max="14" width="11.1796875" style="71" customWidth="1"/>
+    <col min="15" max="15" width="15.26953125" style="151" customWidth="1"/>
+    <col min="16" max="16" width="9.1796875" style="40"/>
+    <col min="17" max="16384" width="9.1796875" style="151"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:99" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:99" ht="407" x14ac:dyDescent="0.45">
       <c r="A1" s="151" t="s">
         <v>0</v>
       </c>
@@ -10124,7 +10124,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="2" spans="1:99" s="203" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:99" s="203" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="151">
         <v>14</v>
       </c>
@@ -10257,7 +10257,7 @@
       <c r="CT2" s="151"/>
       <c r="CU2" s="151"/>
     </row>
-    <row r="3" spans="1:99" s="203" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:99" s="203" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="151">
         <v>8</v>
       </c>
@@ -10391,7 +10391,7 @@
       <c r="CT3" s="151"/>
       <c r="CU3" s="151"/>
     </row>
-    <row r="4" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:99" x14ac:dyDescent="0.35">
       <c r="A4" s="151">
         <v>23</v>
       </c>
@@ -10525,7 +10525,7 @@
       <c r="CT4" s="203"/>
       <c r="CU4" s="203"/>
     </row>
-    <row r="5" spans="1:99" s="266" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:99" s="266" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="266" t="s">
         <v>113</v>
       </c>
@@ -10659,7 +10659,7 @@
       <c r="CT5" s="311"/>
       <c r="CU5" s="311"/>
     </row>
-    <row r="6" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:99" x14ac:dyDescent="0.35">
       <c r="A6" s="151">
         <v>22</v>
       </c>
@@ -10710,7 +10710,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="7" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:99" x14ac:dyDescent="0.35">
       <c r="A7" s="151">
         <v>21</v>
       </c>
@@ -10761,7 +10761,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="8" spans="1:99" s="372" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:99" s="372" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="372">
         <v>19</v>
       </c>
@@ -10809,7 +10809,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="9" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:99" x14ac:dyDescent="0.35">
       <c r="A9" s="151">
         <v>4</v>
       </c>
@@ -10943,7 +10943,7 @@
       <c r="CT9" s="311"/>
       <c r="CU9" s="311"/>
     </row>
-    <row r="10" spans="1:99" s="203" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:99" s="203" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="151">
         <v>29</v>
       </c>
@@ -11077,7 +11077,7 @@
       <c r="CT10" s="311"/>
       <c r="CU10" s="311"/>
     </row>
-    <row r="11" spans="1:99" s="369" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:99" s="369" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="369" t="s">
         <v>178</v>
       </c>
@@ -11211,7 +11211,7 @@
       <c r="CT11" s="368"/>
       <c r="CU11" s="368"/>
     </row>
-    <row r="12" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:99" x14ac:dyDescent="0.35">
       <c r="A12" s="151">
         <v>27</v>
       </c>
@@ -11262,7 +11262,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:99" x14ac:dyDescent="0.35">
       <c r="A13" s="151">
         <v>5</v>
       </c>
@@ -11313,7 +11313,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="14" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:99" x14ac:dyDescent="0.35">
       <c r="A14" s="151">
         <v>30</v>
       </c>
@@ -11364,7 +11364,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="15" spans="1:99" s="203" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:99" s="203" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="266" t="s">
         <v>301</v>
       </c>
@@ -11498,7 +11498,7 @@
       <c r="CT15" s="151"/>
       <c r="CU15" s="151"/>
     </row>
-    <row r="16" spans="1:99" s="266" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:99" s="266" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="151">
         <v>10</v>
       </c>
@@ -11632,7 +11632,7 @@
       <c r="CT16" s="151"/>
       <c r="CU16" s="151"/>
     </row>
-    <row r="17" spans="1:99" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:99" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="266" t="s">
         <v>299</v>
       </c>
@@ -11766,7 +11766,7 @@
       <c r="CT17" s="203"/>
       <c r="CU17" s="203"/>
     </row>
-    <row r="18" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:99" x14ac:dyDescent="0.35">
       <c r="A18" s="266" t="s">
         <v>306</v>
       </c>
@@ -11900,7 +11900,7 @@
       <c r="CT18" s="203"/>
       <c r="CU18" s="203"/>
     </row>
-    <row r="19" spans="1:99" s="372" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:99" s="372" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="368">
         <v>15</v>
       </c>
@@ -12034,7 +12034,7 @@
       <c r="CT19" s="368"/>
       <c r="CU19" s="368"/>
     </row>
-    <row r="20" spans="1:99" s="266" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:99" s="266" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="151">
         <v>28</v>
       </c>
@@ -12168,7 +12168,7 @@
       <c r="CT20" s="151"/>
       <c r="CU20" s="151"/>
     </row>
-    <row r="21" spans="1:99" s="311" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:99" s="311" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="151">
         <v>26</v>
       </c>
@@ -12302,7 +12302,7 @@
       <c r="CT21" s="151"/>
       <c r="CU21" s="151"/>
     </row>
-    <row r="22" spans="1:99" s="311" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:99" s="311" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="151">
         <v>16</v>
       </c>
@@ -12436,7 +12436,7 @@
       <c r="CT22" s="151"/>
       <c r="CU22" s="151"/>
     </row>
-    <row r="23" spans="1:99" s="203" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:99" s="203" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="151">
         <v>31</v>
       </c>
@@ -12570,7 +12570,7 @@
       <c r="CT23" s="151"/>
       <c r="CU23" s="151"/>
     </row>
-    <row r="24" spans="1:99" s="372" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:99" s="372" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="369" t="s">
         <v>252</v>
       </c>
@@ -12621,7 +12621,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="25" spans="1:99" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:99" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="151" t="s">
         <v>437</v>
       </c>
@@ -12672,7 +12672,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="26" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:99" x14ac:dyDescent="0.35">
       <c r="A26" s="151" t="s">
         <v>435</v>
       </c>
@@ -12806,7 +12806,7 @@
       <c r="CT26" s="266"/>
       <c r="CU26" s="266"/>
     </row>
-    <row r="27" spans="1:99" s="372" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:99" s="372" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="368">
         <v>19</v>
       </c>
@@ -12853,7 +12853,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="28" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:99" x14ac:dyDescent="0.35">
       <c r="A28" s="151">
         <v>15</v>
       </c>
@@ -12904,7 +12904,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="29" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:99" x14ac:dyDescent="0.35">
       <c r="A29" s="151" t="s">
         <v>440</v>
       </c>
@@ -13038,7 +13038,7 @@
       <c r="CT29" s="203"/>
       <c r="CU29" s="203"/>
     </row>
-    <row r="30" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:99" x14ac:dyDescent="0.35">
       <c r="A30" s="151">
         <v>30</v>
       </c>
@@ -13089,7 +13089,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="31" spans="1:99" s="372" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:99" s="372" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="368" t="s">
         <v>442</v>
       </c>
@@ -13140,7 +13140,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="32" spans="1:99" s="203" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:99" s="203" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="151" t="s">
         <v>443</v>
       </c>
@@ -13274,7 +13274,7 @@
       <c r="CT32" s="151"/>
       <c r="CU32" s="151"/>
     </row>
-    <row r="33" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:99" x14ac:dyDescent="0.35">
       <c r="A33" s="151" t="s">
         <v>457</v>
       </c>
@@ -13408,7 +13408,7 @@
       <c r="CT33" s="203"/>
       <c r="CU33" s="203"/>
     </row>
-    <row r="34" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:99" x14ac:dyDescent="0.35">
       <c r="A34" s="151">
         <v>20</v>
       </c>
@@ -13459,7 +13459,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="35" spans="1:99" s="372" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:99" s="372" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="368">
         <v>26</v>
       </c>
@@ -13510,7 +13510,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="36" spans="1:99" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:99" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="151">
         <v>18</v>
       </c>
@@ -13643,7 +13643,7 @@
       <c r="CT36" s="203"/>
       <c r="CU36" s="203"/>
     </row>
-    <row r="37" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:99" x14ac:dyDescent="0.35">
       <c r="A37" s="151">
         <v>24</v>
       </c>
@@ -13777,7 +13777,7 @@
       <c r="CT37" s="203"/>
       <c r="CU37" s="203"/>
     </row>
-    <row r="38" spans="1:99" s="203" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:99" s="203" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="151">
         <v>25</v>
       </c>
@@ -13911,7 +13911,7 @@
       <c r="CT38" s="151"/>
       <c r="CU38" s="151"/>
     </row>
-    <row r="39" spans="1:99" s="368" customFormat="1" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:99" s="368" customFormat="1" ht="23.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="372" t="s">
         <v>379</v>
       </c>
@@ -14045,7 +14045,7 @@
       <c r="CT39" s="376"/>
       <c r="CU39" s="376"/>
     </row>
-    <row r="40" spans="1:99" s="203" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:99" s="203" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="151">
         <v>12</v>
       </c>
@@ -14179,7 +14179,7 @@
       <c r="CT40" s="151"/>
       <c r="CU40" s="151"/>
     </row>
-    <row r="41" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:99" x14ac:dyDescent="0.35">
       <c r="A41" s="151">
         <v>13</v>
       </c>
@@ -14313,7 +14313,7 @@
       <c r="CT41" s="203"/>
       <c r="CU41" s="203"/>
     </row>
-    <row r="42" spans="1:99" s="294" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:99" s="294" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="294">
         <v>14</v>
       </c>
@@ -14363,7 +14363,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="43" spans="1:99" s="294" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:99" s="294" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="294">
         <v>8</v>
       </c>
@@ -14414,7 +14414,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="44" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:99" x14ac:dyDescent="0.35">
       <c r="A44" s="203">
         <v>23</v>
       </c>
@@ -14465,7 +14465,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="45" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:99" x14ac:dyDescent="0.35">
       <c r="A45" s="203">
         <v>21</v>
       </c>
@@ -14516,7 +14516,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="46" spans="1:99" s="372" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:99" s="372" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="368">
         <v>19</v>
       </c>
@@ -14563,7 +14563,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="47" spans="1:99" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:99" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="151" t="s">
         <v>416</v>
       </c>
@@ -14614,7 +14614,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="48" spans="1:99" s="203" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:99" s="203" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="151" t="s">
         <v>414</v>
       </c>
@@ -14748,7 +14748,7 @@
       <c r="CT48" s="151"/>
       <c r="CU48" s="151"/>
     </row>
-    <row r="49" spans="1:99" s="372" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:99" s="372" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="372">
         <v>6</v>
       </c>
@@ -14799,7 +14799,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="50" spans="1:99" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:99" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="151">
         <v>9</v>
       </c>
@@ -14933,7 +14933,7 @@
       <c r="CT50" s="266"/>
       <c r="CU50" s="266"/>
     </row>
-    <row r="51" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:99" x14ac:dyDescent="0.35">
       <c r="A51" s="151" t="s">
         <v>428</v>
       </c>
@@ -15067,7 +15067,7 @@
       <c r="CT51" s="203"/>
       <c r="CU51" s="203"/>
     </row>
-    <row r="52" spans="1:99" s="372" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:99" s="372" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="372" t="s">
         <v>431</v>
       </c>
@@ -15118,7 +15118,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="53" spans="1:99" s="203" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:99" s="203" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="151">
         <v>28</v>
       </c>
@@ -15252,7 +15252,7 @@
       <c r="CT53" s="151"/>
       <c r="CU53" s="151"/>
     </row>
-    <row r="54" spans="1:99" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:99" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="151" t="s">
         <v>433</v>
       </c>
@@ -15303,7 +15303,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="55" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:99" x14ac:dyDescent="0.35">
       <c r="A55" s="203">
         <v>16</v>
       </c>
@@ -15354,7 +15354,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="56" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:99" x14ac:dyDescent="0.35">
       <c r="A56" s="203">
         <v>31</v>
       </c>
@@ -15405,7 +15405,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="57" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:99" x14ac:dyDescent="0.35">
       <c r="C57" s="40"/>
       <c r="O57" s="367"/>
     </row>
@@ -15432,27 +15432,27 @@
       <selection pane="bottomRight" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="2" width="5" style="151" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="151" customWidth="1"/>
-    <col min="4" max="4" width="5.7109375" style="151" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" style="151" customWidth="1"/>
+    <col min="4" max="4" width="5.7265625" style="151" customWidth="1"/>
     <col min="5" max="5" width="27" style="151" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="151" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="151" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" style="151" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="151" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" style="151" customWidth="1"/>
-    <col min="11" max="11" width="7.140625" style="151" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="7.140625" style="151" customWidth="1"/>
-    <col min="13" max="13" width="7.140625" style="151" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="11.140625" style="71" customWidth="1"/>
-    <col min="15" max="15" width="15.28515625" style="151" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" style="40"/>
-    <col min="17" max="16384" width="9.140625" style="151"/>
+    <col min="6" max="6" width="8.7265625" style="151" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1796875" style="151" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="11.54296875" style="151" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7265625" style="151" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="7.1796875" style="151" customWidth="1"/>
+    <col min="11" max="11" width="7.1796875" style="151" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="7.1796875" style="151" customWidth="1"/>
+    <col min="13" max="13" width="7.1796875" style="151" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="11.1796875" style="71" customWidth="1"/>
+    <col min="15" max="15" width="15.26953125" style="151" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="9.1796875" style="40"/>
+    <col min="17" max="16384" width="9.1796875" style="151"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:122" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:122" ht="407" x14ac:dyDescent="0.45">
       <c r="A1" s="151" t="s">
         <v>0</v>
       </c>
@@ -15502,7 +15502,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="2" spans="1:122" s="203" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:122" s="203" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="151">
         <v>18</v>
       </c>
@@ -15552,7 +15552,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:122" s="203" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:122" s="203" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="151">
         <v>24</v>
       </c>
@@ -15603,7 +15603,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="4" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A4" s="151">
         <v>25</v>
       </c>
@@ -15654,7 +15654,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:122" s="266" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:122" s="266" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="151" t="s">
         <v>379</v>
       </c>
@@ -15705,7 +15705,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A6" s="151">
         <v>14</v>
       </c>
@@ -15755,7 +15755,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="7" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A7" s="151">
         <v>8</v>
       </c>
@@ -15806,7 +15806,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="8" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A8" s="151">
         <v>23</v>
       </c>
@@ -15963,7 +15963,7 @@
       <c r="DQ8" s="203"/>
       <c r="DR8" s="203"/>
     </row>
-    <row r="9" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A9" s="266" t="s">
         <v>113</v>
       </c>
@@ -16120,7 +16120,7 @@
       <c r="DQ9" s="311"/>
       <c r="DR9" s="311"/>
     </row>
-    <row r="10" spans="1:122" s="203" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:122" s="203" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="151">
         <v>22</v>
       </c>
@@ -16277,7 +16277,7 @@
       <c r="DQ10" s="151"/>
       <c r="DR10" s="151"/>
     </row>
-    <row r="11" spans="1:122" s="311" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:122" s="311" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="151">
         <v>21</v>
       </c>
@@ -16434,7 +16434,7 @@
       <c r="DQ11" s="151"/>
       <c r="DR11" s="151"/>
     </row>
-    <row r="12" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A12" s="151">
         <v>19</v>
       </c>
@@ -16482,7 +16482,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="13" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A13" s="151" t="s">
         <v>437</v>
       </c>
@@ -16533,7 +16533,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="14" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A14" s="151" t="s">
         <v>435</v>
       </c>
@@ -16690,7 +16690,7 @@
       <c r="DQ14" s="266"/>
       <c r="DR14" s="266"/>
     </row>
-    <row r="15" spans="1:122" s="203" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:122" s="203" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="151">
         <v>12</v>
       </c>
@@ -16847,7 +16847,7 @@
       <c r="DQ15" s="151"/>
       <c r="DR15" s="151"/>
     </row>
-    <row r="16" spans="1:122" s="266" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:122" s="266" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="151">
         <v>13</v>
       </c>
@@ -17004,7 +17004,7 @@
       <c r="DQ16" s="203"/>
       <c r="DR16" s="203"/>
     </row>
-    <row r="17" spans="1:122" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:122" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="151" t="s">
         <v>416</v>
       </c>
@@ -17055,7 +17055,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="18" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A18" s="151" t="s">
         <v>414</v>
       </c>
@@ -17106,7 +17106,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="19" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A19" s="151">
         <v>6</v>
       </c>
@@ -17157,7 +17157,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:122" s="266" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:122" s="266" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="151">
         <v>4</v>
       </c>
@@ -17314,7 +17314,7 @@
       <c r="DQ20" s="311"/>
       <c r="DR20" s="311"/>
     </row>
-    <row r="21" spans="1:122" s="311" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:122" s="311" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="151">
         <v>29</v>
       </c>
@@ -17365,7 +17365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:122" s="311" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:122" s="311" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="151">
         <v>9</v>
       </c>
@@ -17522,7 +17522,7 @@
       <c r="DQ22" s="266"/>
       <c r="DR22" s="266"/>
     </row>
-    <row r="23" spans="1:122" s="203" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:122" s="203" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="151" t="s">
         <v>428</v>
       </c>
@@ -17573,7 +17573,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="24" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A24" s="151" t="s">
         <v>431</v>
       </c>
@@ -17624,7 +17624,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:122" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:122" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="151">
         <v>28</v>
       </c>
@@ -17675,7 +17675,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="26" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A26" s="151">
         <v>26</v>
       </c>
@@ -17726,7 +17726,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="27" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A27" s="151">
         <v>16</v>
       </c>
@@ -17777,7 +17777,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="28" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A28" s="151">
         <v>31</v>
       </c>
@@ -17828,7 +17828,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="29" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A29" s="151" t="s">
         <v>443</v>
       </c>
@@ -17879,7 +17879,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="30" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A30" s="151" t="s">
         <v>457</v>
       </c>
@@ -18036,7 +18036,7 @@
       <c r="DQ30" s="203"/>
       <c r="DR30" s="203"/>
     </row>
-    <row r="31" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A31" s="151">
         <v>20</v>
       </c>
@@ -18087,7 +18087,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="32" spans="1:122" s="203" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:122" s="203" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="151">
         <v>28</v>
       </c>
@@ -18244,7 +18244,7 @@
       <c r="DQ32" s="151"/>
       <c r="DR32" s="151"/>
     </row>
-    <row r="33" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A33" s="151" t="s">
         <v>433</v>
       </c>
@@ -18295,7 +18295,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="34" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A34" s="151">
         <v>27</v>
       </c>
@@ -18346,7 +18346,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A35" s="151">
         <v>5</v>
       </c>
@@ -18397,7 +18397,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="36" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A36" s="151">
         <v>30</v>
       </c>
@@ -18448,7 +18448,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="37" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A37" s="266" t="s">
         <v>301</v>
       </c>
@@ -18499,7 +18499,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="38" spans="1:122" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:122" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="151">
         <v>10</v>
       </c>
@@ -18550,7 +18550,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="39" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A39" s="266" t="s">
         <v>299</v>
       </c>
@@ -18707,7 +18707,7 @@
       <c r="DQ39" s="203"/>
       <c r="DR39" s="203"/>
     </row>
-    <row r="40" spans="1:122" s="203" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:122" s="203" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="266" t="s">
         <v>306</v>
       </c>
@@ -18758,7 +18758,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="41" spans="1:122" s="203" customFormat="1" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:122" s="203" customFormat="1" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="151">
         <v>15</v>
       </c>
@@ -18915,7 +18915,7 @@
       <c r="DQ41" s="151"/>
       <c r="DR41" s="151"/>
     </row>
-    <row r="42" spans="1:122" s="203" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:122" s="203" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="151" t="s">
         <v>440</v>
       </c>
@@ -18966,7 +18966,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="43" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A43" s="151">
         <v>30</v>
       </c>
@@ -19017,7 +19017,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="44" spans="1:122" s="294" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:122" s="294" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44" s="294">
         <v>14</v>
       </c>
@@ -19070,7 +19070,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="45" spans="1:122" s="294" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:122" s="294" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="294">
         <v>8</v>
       </c>
@@ -19124,7 +19124,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="46" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A46" s="203">
         <v>23</v>
       </c>
@@ -19178,7 +19178,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="47" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A47" s="203">
         <v>21</v>
       </c>
@@ -19232,7 +19232,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="48" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A48" s="203">
         <v>19</v>
       </c>
@@ -19282,7 +19282,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="49" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="203">
         <v>19</v>
       </c>
@@ -19332,7 +19332,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="50" spans="1:17" s="203" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" s="203" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="311" t="s">
         <v>178</v>
       </c>
@@ -19386,7 +19386,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A51" s="203">
         <v>26</v>
       </c>
@@ -19440,7 +19440,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="52" spans="1:17" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="203">
         <v>16</v>
       </c>
@@ -19494,7 +19494,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A53" s="203">
         <v>31</v>
       </c>
@@ -19548,7 +19548,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A54" s="311" t="s">
         <v>252</v>
       </c>
@@ -19602,7 +19602,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="55" spans="1:17" s="203" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" s="203" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="203">
         <v>15</v>
       </c>
@@ -19656,7 +19656,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="56" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="203" t="s">
         <v>442</v>
       </c>
@@ -19710,7 +19710,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A57" s="203">
         <v>17</v>
       </c>
@@ -19764,7 +19764,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A58" s="203" t="s">
         <v>351</v>
       </c>
@@ -19818,7 +19818,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
       <c r="C59" s="40"/>
       <c r="O59" s="367"/>
     </row>
@@ -19849,71 +19849,71 @@
       <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="2" width="5" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" customWidth="1"/>
     <col min="4" max="4" width="5" customWidth="1"/>
-    <col min="5" max="5" width="3.85546875" customWidth="1"/>
+    <col min="5" max="5" width="3.81640625" customWidth="1"/>
     <col min="6" max="6" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="6.140625" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="5.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="5.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.28515625" style="2" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" style="2" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="8.7109375" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="5.85546875" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" style="2" customWidth="1"/>
-    <col min="16" max="20" width="8.7109375" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="8.7109375" style="2" customWidth="1"/>
-    <col min="22" max="23" width="8.7109375" style="2" hidden="1" customWidth="1"/>
-    <col min="24" max="25" width="8.7109375" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="8.7109375" style="2" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="8.7109375" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="8.7109375" style="2" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="8.7109375" hidden="1" customWidth="1"/>
-    <col min="30" max="32" width="8.7109375" style="3" hidden="1" customWidth="1"/>
-    <col min="33" max="36" width="8.7109375" style="2" hidden="1" customWidth="1"/>
-    <col min="37" max="49" width="8.7109375" hidden="1" customWidth="1"/>
-    <col min="50" max="50" width="7.140625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="6.1796875" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="5.7265625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="5.453125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.7265625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="7.26953125" style="2" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="8.7265625" style="2" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="8.7265625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="5.81640625" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="11.7265625" style="2" customWidth="1"/>
+    <col min="16" max="20" width="8.7265625" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="8.7265625" style="2" customWidth="1"/>
+    <col min="22" max="23" width="8.7265625" style="2" hidden="1" customWidth="1"/>
+    <col min="24" max="25" width="8.7265625" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="8.7265625" style="2" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="8.7265625" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="8.7265625" style="2" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="8.7265625" hidden="1" customWidth="1"/>
+    <col min="30" max="32" width="8.7265625" style="3" hidden="1" customWidth="1"/>
+    <col min="33" max="36" width="8.7265625" style="2" hidden="1" customWidth="1"/>
+    <col min="37" max="49" width="8.7265625" hidden="1" customWidth="1"/>
+    <col min="50" max="50" width="7.1796875" hidden="1" customWidth="1"/>
     <col min="51" max="51" width="8" hidden="1" customWidth="1"/>
-    <col min="52" max="52" width="4.7109375" hidden="1" customWidth="1"/>
-    <col min="53" max="53" width="6.5703125" hidden="1" customWidth="1"/>
-    <col min="54" max="54" width="6.7109375" hidden="1" customWidth="1"/>
-    <col min="55" max="55" width="6.42578125" hidden="1" customWidth="1"/>
-    <col min="56" max="56" width="5.42578125" hidden="1" customWidth="1"/>
-    <col min="57" max="76" width="8.7109375" hidden="1" customWidth="1"/>
-    <col min="77" max="77" width="8.7109375" style="3" hidden="1" customWidth="1"/>
-    <col min="78" max="85" width="8.7109375" hidden="1" customWidth="1"/>
-    <col min="86" max="87" width="6.5703125" hidden="1" customWidth="1"/>
-    <col min="88" max="88" width="7.140625" hidden="1" customWidth="1"/>
-    <col min="89" max="90" width="6.85546875" hidden="1" customWidth="1"/>
-    <col min="91" max="91" width="7.7109375" hidden="1" customWidth="1"/>
-    <col min="92" max="92" width="8.140625" hidden="1" customWidth="1"/>
-    <col min="93" max="93" width="7.140625" style="5" customWidth="1"/>
-    <col min="94" max="94" width="5.140625" style="3" hidden="1" customWidth="1"/>
+    <col min="52" max="52" width="4.7265625" hidden="1" customWidth="1"/>
+    <col min="53" max="53" width="6.54296875" hidden="1" customWidth="1"/>
+    <col min="54" max="54" width="6.7265625" hidden="1" customWidth="1"/>
+    <col min="55" max="55" width="6.453125" hidden="1" customWidth="1"/>
+    <col min="56" max="56" width="5.453125" hidden="1" customWidth="1"/>
+    <col min="57" max="76" width="8.7265625" hidden="1" customWidth="1"/>
+    <col min="77" max="77" width="8.7265625" style="3" hidden="1" customWidth="1"/>
+    <col min="78" max="85" width="8.7265625" hidden="1" customWidth="1"/>
+    <col min="86" max="87" width="6.54296875" hidden="1" customWidth="1"/>
+    <col min="88" max="88" width="7.1796875" hidden="1" customWidth="1"/>
+    <col min="89" max="90" width="6.81640625" hidden="1" customWidth="1"/>
+    <col min="91" max="91" width="7.7265625" hidden="1" customWidth="1"/>
+    <col min="92" max="92" width="8.1796875" hidden="1" customWidth="1"/>
+    <col min="93" max="93" width="7.1796875" style="5" customWidth="1"/>
+    <col min="94" max="94" width="5.1796875" style="3" hidden="1" customWidth="1"/>
     <col min="95" max="95" width="9" style="10" hidden="1" customWidth="1"/>
-    <col min="96" max="104" width="8.7109375" hidden="1" customWidth="1"/>
-    <col min="105" max="105" width="6.5703125" hidden="1" customWidth="1"/>
-    <col min="106" max="106" width="8.140625" hidden="1" customWidth="1"/>
-    <col min="107" max="109" width="8.7109375" hidden="1" customWidth="1"/>
-    <col min="110" max="110" width="1.85546875" style="7" hidden="1" customWidth="1"/>
-    <col min="111" max="111" width="8.7109375" style="3" hidden="1" customWidth="1"/>
-    <col min="112" max="112" width="8.7109375" style="10" hidden="1" customWidth="1"/>
-    <col min="113" max="113" width="8.7109375" style="7" hidden="1" customWidth="1"/>
-    <col min="114" max="115" width="11.140625" style="7" hidden="1" customWidth="1"/>
-    <col min="116" max="116" width="11.140625" style="139" customWidth="1"/>
-    <col min="117" max="117" width="7.5703125" customWidth="1"/>
-    <col min="118" max="118" width="9.140625" style="128"/>
-    <col min="119" max="119" width="11.140625" style="3" hidden="1" customWidth="1"/>
+    <col min="96" max="104" width="8.7265625" hidden="1" customWidth="1"/>
+    <col min="105" max="105" width="6.54296875" hidden="1" customWidth="1"/>
+    <col min="106" max="106" width="8.1796875" hidden="1" customWidth="1"/>
+    <col min="107" max="109" width="8.7265625" hidden="1" customWidth="1"/>
+    <col min="110" max="110" width="1.81640625" style="7" hidden="1" customWidth="1"/>
+    <col min="111" max="111" width="8.7265625" style="3" hidden="1" customWidth="1"/>
+    <col min="112" max="112" width="8.7265625" style="10" hidden="1" customWidth="1"/>
+    <col min="113" max="113" width="8.7265625" style="7" hidden="1" customWidth="1"/>
+    <col min="114" max="115" width="11.1796875" style="7" hidden="1" customWidth="1"/>
+    <col min="116" max="116" width="11.1796875" style="139" customWidth="1"/>
+    <col min="117" max="117" width="7.54296875" customWidth="1"/>
+    <col min="118" max="118" width="9.1796875" style="128"/>
+    <col min="119" max="119" width="11.1796875" style="3" hidden="1" customWidth="1"/>
     <col min="120" max="120" width="12" style="126" hidden="1" customWidth="1"/>
-    <col min="121" max="121" width="9.140625" style="126"/>
-    <col min="122" max="122" width="8.85546875" hidden="1" customWidth="1"/>
-    <col min="123" max="123" width="8.7109375" style="13" hidden="1" customWidth="1"/>
+    <col min="121" max="121" width="9.1796875" style="126"/>
+    <col min="122" max="122" width="8.81640625" hidden="1" customWidth="1"/>
+    <col min="123" max="123" width="8.7265625" style="13" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:124" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:124" ht="409.6" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -20287,7 +20287,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="2" spans="1:124" s="316" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:124" s="316" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="314">
         <v>17</v>
       </c>
@@ -20564,7 +20564,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="3" spans="1:124" s="201" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:124" s="201" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="262" t="s">
         <v>351</v>
       </c>
@@ -20805,7 +20805,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="4" spans="1:124" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:124" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="25">
         <v>18</v>
       </c>
@@ -21102,7 +21102,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="1:124" s="27" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:124" s="27" customFormat="1" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="25">
         <v>24</v>
       </c>
@@ -21400,7 +21400,7 @@
       </c>
       <c r="DT5" s="150"/>
     </row>
-    <row r="6" spans="1:124" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:124" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="25">
         <v>25</v>
       </c>
@@ -21693,7 +21693,7 @@
       </c>
       <c r="DT6" s="150"/>
     </row>
-    <row r="7" spans="1:124" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:124" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="25" t="s">
         <v>379</v>
       </c>
@@ -21928,7 +21928,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="8" spans="1:124" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:124" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="25">
         <v>14</v>
       </c>
@@ -22246,7 +22246,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="9" spans="1:124" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:124" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="194">
         <v>14</v>
       </c>
@@ -22538,7 +22538,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="10" spans="1:124" s="201" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:124" s="201" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="25">
         <v>8</v>
       </c>
@@ -22845,7 +22845,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="11" spans="1:124" s="236" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:124" s="236" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="194">
         <v>8</v>
       </c>
@@ -23127,7 +23127,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="12" spans="1:124" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:124" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="121" t="s">
         <v>437</v>
       </c>
@@ -23364,7 +23364,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="13" spans="1:124" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:124" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="25">
         <v>12</v>
       </c>
@@ -23667,7 +23667,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="14" spans="1:124" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:124" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="25">
         <v>23</v>
       </c>
@@ -23963,7 +23963,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="15" spans="1:124" s="201" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:124" s="201" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="194">
         <v>23</v>
       </c>
@@ -24253,7 +24253,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="1:124" s="27" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:124" s="27" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="34" t="s">
         <v>113</v>
       </c>
@@ -24453,7 +24453,7 @@
         <v>33.613523981006082</v>
       </c>
     </row>
-    <row r="17" spans="1:124" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:124" ht="15.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="25">
         <v>22</v>
       </c>
@@ -24727,7 +24727,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="18" spans="1:124" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:124" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="25">
         <v>21</v>
       </c>
@@ -25047,7 +25047,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="19" spans="1:124" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:124" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="194">
         <v>21</v>
       </c>
@@ -25359,7 +25359,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="20" spans="1:124" s="27" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:124" s="27" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="25">
         <v>19</v>
       </c>
@@ -25613,7 +25613,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="21" spans="1:124" s="236" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:124" s="236" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="194">
         <v>19</v>
       </c>
@@ -25864,7 +25864,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="22" spans="1:124" s="236" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:124" s="236" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="225">
         <v>19</v>
       </c>
@@ -26119,7 +26119,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="23" spans="1:124" s="201" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:124" s="201" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="261">
         <v>13</v>
       </c>
@@ -26416,7 +26416,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="24" spans="1:124" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:124" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="121" t="s">
         <v>435</v>
       </c>
@@ -26656,7 +26656,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="25" spans="1:124" s="63" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:124" s="63" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="61" t="s">
         <v>416</v>
       </c>
@@ -26844,7 +26844,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="26" spans="1:124" s="76" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:124" s="76" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="73" t="s">
         <v>414</v>
       </c>
@@ -27032,7 +27032,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="27" spans="1:124" s="81" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:124" s="81" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="83">
         <v>6</v>
       </c>
@@ -27311,7 +27311,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="28" spans="1:124" s="81" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:124" s="81" customFormat="1" ht="319.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="83">
         <v>9</v>
       </c>
@@ -27590,7 +27590,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="29" spans="1:124" s="81" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:124" s="81" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="83">
         <v>4</v>
       </c>
@@ -27855,7 +27855,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="30" spans="1:124" s="81" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:124" s="81" customFormat="1" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="149">
         <v>29</v>
       </c>
@@ -28121,7 +28121,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="31" spans="1:124" s="81" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:124" s="81" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="83" t="s">
         <v>428</v>
       </c>
@@ -28358,7 +28358,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="32" spans="1:124" s="248" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:124" s="248" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="295" t="s">
         <v>178</v>
       </c>
@@ -28594,7 +28594,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="33" spans="1:124" s="81" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:124" s="81" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="83" t="s">
         <v>431</v>
       </c>
@@ -28830,7 +28830,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="34" spans="1:124" s="81" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:124" s="81" customFormat="1" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="149">
         <v>28</v>
       </c>
@@ -29159,7 +29159,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="35" spans="1:124" s="102" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:124" s="102" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="96">
         <v>28</v>
       </c>
@@ -29474,7 +29474,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="36" spans="1:124" s="98" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:124" s="98" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="149">
         <v>26</v>
       </c>
@@ -29798,7 +29798,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="37" spans="1:124" s="98" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:124" s="98" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="260">
         <v>26</v>
       </c>
@@ -30094,7 +30094,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="38" spans="1:124" s="98" customFormat="1" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:124" s="98" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="147" t="s">
         <v>443</v>
       </c>
@@ -30330,7 +30330,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="39" spans="1:124" s="98" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:124" s="98" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="83">
         <v>16</v>
       </c>
@@ -30651,7 +30651,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="40" spans="1:124" s="259" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:124" s="259" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="258">
         <v>16</v>
       </c>
@@ -30930,7 +30930,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="41" spans="1:124" s="259" customFormat="1" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:124" s="259" customFormat="1" ht="23.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="149">
         <v>31</v>
       </c>
@@ -31277,7 +31277,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="42" spans="1:124" s="259" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:124" s="259" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="258">
         <v>31</v>
       </c>
@@ -31605,7 +31605,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="43" spans="1:124" s="98" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:124" s="98" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="83" t="s">
         <v>433</v>
       </c>
@@ -31841,7 +31841,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="44" spans="1:124" s="259" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:124" s="259" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="310" t="s">
         <v>252</v>
       </c>
@@ -32079,7 +32079,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="45" spans="1:124" s="98" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:124" s="98" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="263" t="s">
         <v>457</v>
       </c>
@@ -32316,7 +32316,7 @@
       </c>
       <c r="DT45" s="81"/>
     </row>
-    <row r="46" spans="1:124" s="116" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:124" s="116" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="85">
         <v>20</v>
       </c>
@@ -32607,7 +32607,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="47" spans="1:124" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:124" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="117">
         <v>27</v>
       </c>
@@ -32895,7 +32895,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="48" spans="1:124" s="1" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:124" s="1" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="48">
         <v>5</v>
       </c>
@@ -33198,7 +33198,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="49" spans="1:124" s="227" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:124" s="227" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="262">
         <v>15</v>
       </c>
@@ -33531,7 +33531,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="50" spans="1:124" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:124" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="121">
         <v>15</v>
       </c>
@@ -33806,7 +33806,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="51" spans="1:124" s="1" customFormat="1" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:124" s="1" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="25">
         <v>30</v>
       </c>
@@ -34115,7 +34115,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="52" spans="1:124" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:124" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="121">
         <v>30</v>
       </c>
@@ -34368,7 +34368,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="53" spans="1:124" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:124" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="34" t="s">
         <v>301</v>
       </c>
@@ -34593,7 +34593,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="54" spans="1:124" s="227" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:124" s="227" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="225" t="s">
         <v>442</v>
       </c>
@@ -34820,7 +34820,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="55" spans="1:124" s="1" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:124" s="1" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="25">
         <v>10</v>
       </c>
@@ -35112,7 +35112,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="56" spans="1:124" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:124" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="183" t="s">
         <v>299</v>
       </c>
@@ -35351,7 +35351,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="57" spans="1:124" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:124" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="183" t="s">
         <v>306</v>
       </c>
@@ -35587,7 +35587,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="58" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:124" x14ac:dyDescent="0.35">
       <c r="A58" s="158" t="s">
         <v>440</v>
       </c>
@@ -35827,7 +35827,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="59" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:124" x14ac:dyDescent="0.35">
       <c r="C59" s="126"/>
       <c r="DE59" s="30"/>
       <c r="DJ59" s="143"/>
@@ -35881,3388 +35881,3388 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0FEBC27-678D-472C-B3FB-DFF3ADD9CE11}">
   <dimension ref="A1:A1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+    <sheetView topLeftCell="A69" workbookViewId="0">
       <selection activeCell="H85" sqref="H85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="146" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="145" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="145" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="145" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="145" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="145" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="145" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="145" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="145" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="145" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="145" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="145" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="145" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="145" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="145" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="145" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="145" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="145" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="145" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="145" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="145" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="145" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="145" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="145" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="145" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="145" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="145" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="145" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="145" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="145" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="145" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="145" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="145" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="145" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="145" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="145" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="145" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="145" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="145" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="145" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="145" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="145" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="145" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="145" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="145" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="145" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="145" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="145" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="145" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="145" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="145" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="145" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="145" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="145" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="145" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="145" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="145" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="145" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="145" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="145" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="145" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="145" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="145" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="145" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="145" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="145" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" s="145" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="145" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="145" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="145" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="145" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="72" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="145" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="145" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="145" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="145" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" s="145" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77" s="145" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="145" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="145" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="80" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" s="145" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A81" s="145" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A82" s="145" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="145" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="84" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A84" s="145" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A85" s="145" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="86" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A86" s="145" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A87" s="145" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="88" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A88" s="145" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A89" s="145" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="90" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="145" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="91" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A91" s="145" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A92" s="145" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A93" s="145" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="94" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A94" s="145" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="95" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A95" s="145" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="96" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="145" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="97" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A97" s="145" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="98" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="145" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="99" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="145" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="100" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A100" s="145" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="101" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A101" s="145" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="102" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A102" s="145" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="103" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A103" s="145" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="104" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A104" s="145" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="105" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A105" s="145" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="106" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A106" s="145" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="107" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A107" s="145" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="108" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A108" s="145" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="109" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A109" s="145" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="110" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A110" s="145" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="111" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A111" s="145" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="112" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A112" s="145" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="113" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A113" s="145" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="114" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A114" s="145" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="115" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A115" s="145" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="116" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A116" s="145" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="117" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A117" s="145" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="118" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A118" s="145" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="119" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A119" s="145" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="120" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A120" s="145" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="121" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A121" s="145" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="122" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A122" s="145" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="123" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A123" s="145" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="124" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A124" s="145" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="125" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A125" s="145" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="126" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A126" s="145" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="127" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A127" s="145" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="128" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A128" s="145" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="129" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A129" s="145" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="130" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A130" s="145" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="131" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A131" s="145" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="132" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A132" s="145" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="133" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A133" s="145" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="134" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A134" s="145" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="135" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A135" s="145" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="136" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A136" s="145" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="137" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A137" s="145" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="138" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A138" s="145" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="139" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A139" s="145" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="140" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A140" s="145" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="141" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A141" s="145" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="142" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A142" s="145" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="143" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A143" s="145" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="144" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A144" s="145" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="145" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A145" s="145" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="146" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A146" s="145" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="147" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A147" s="145" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="148" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A148" s="145" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="149" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A149" s="145" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="150" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A150" s="145" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="151" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A151" s="145" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="152" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A152" s="145" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="153" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A153" s="145" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="154" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A154" s="145" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="155" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A155" s="145" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="156" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A156" s="145" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="157" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A157" s="145" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="158" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A158" s="145" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="159" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A159" s="145" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="160" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A160" s="145" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="161" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A161" s="145" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="162" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A162" s="145" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="163" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A163" s="145" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="164" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A164" s="145" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="165" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A165" s="145" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="166" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A166" s="145" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="167" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A167" s="145" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="168" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A168" s="145" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="169" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A169" s="145" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="170" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A170" s="145" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="171" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A171" s="145" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="172" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A172" s="145" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="173" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A173" s="145" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="174" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A174" s="145" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="175" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A175" s="145" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="176" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A176" s="145" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="177" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A177" s="145" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="178" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A178" s="145" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="179" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A179" s="145" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="180" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A180" s="145" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="181" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A181" s="145" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="182" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A182" s="145" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="183" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A183" s="145" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="184" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A184" s="145" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="185" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A185" s="145" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="186" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A186" s="145" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="187" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A187" s="145" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="188" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A188" s="145" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="189" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A189" s="145" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="190" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A190" s="145"/>
     </row>
-    <row r="191" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A191" s="145"/>
     </row>
-    <row r="192" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A192" s="145"/>
     </row>
-    <row r="193" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A193" s="145"/>
     </row>
-    <row r="194" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A194" s="145"/>
     </row>
-    <row r="195" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A195" s="145"/>
     </row>
-    <row r="196" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A196" s="145"/>
     </row>
-    <row r="197" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A197" s="145"/>
     </row>
-    <row r="198" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A198" s="145"/>
     </row>
-    <row r="199" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A199" s="145"/>
     </row>
-    <row r="200" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A200" s="145"/>
     </row>
-    <row r="201" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A201" s="145"/>
     </row>
-    <row r="202" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A202" s="145"/>
     </row>
-    <row r="203" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A203" s="145"/>
     </row>
-    <row r="204" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A204" s="145"/>
     </row>
-    <row r="205" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A205" s="145"/>
     </row>
-    <row r="206" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A206" s="145"/>
     </row>
-    <row r="207" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A207" s="145"/>
     </row>
-    <row r="208" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A208" s="145"/>
     </row>
-    <row r="209" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A209" s="145"/>
     </row>
-    <row r="210" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A210" s="145"/>
     </row>
-    <row r="211" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A211" s="145"/>
     </row>
-    <row r="212" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A212" s="145"/>
     </row>
-    <row r="213" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A213" s="145"/>
     </row>
-    <row r="214" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A214" s="145"/>
     </row>
-    <row r="215" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A215" s="145"/>
     </row>
-    <row r="216" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A216" s="145"/>
     </row>
-    <row r="217" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A217" s="145"/>
     </row>
-    <row r="218" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A218" s="145"/>
     </row>
-    <row r="219" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A219" s="145"/>
     </row>
-    <row r="220" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A220" s="145"/>
     </row>
-    <row r="221" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A221" s="145"/>
     </row>
-    <row r="222" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A222" s="145"/>
     </row>
-    <row r="223" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A223" s="145"/>
     </row>
-    <row r="224" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A224" s="145"/>
     </row>
-    <row r="225" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A225" s="145"/>
     </row>
-    <row r="226" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A226" s="145"/>
     </row>
-    <row r="227" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A227" s="145"/>
     </row>
-    <row r="228" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A228" s="145"/>
     </row>
-    <row r="229" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A229" s="145"/>
     </row>
-    <row r="230" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A230" s="145"/>
     </row>
-    <row r="231" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A231" s="145"/>
     </row>
-    <row r="232" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A232" s="145"/>
     </row>
-    <row r="233" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A233" s="145"/>
     </row>
-    <row r="234" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A234" s="145"/>
     </row>
-    <row r="235" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A235" s="145"/>
     </row>
-    <row r="236" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A236" s="145"/>
     </row>
-    <row r="237" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A237" s="145"/>
     </row>
-    <row r="238" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A238" s="145"/>
     </row>
-    <row r="239" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A239" s="145"/>
     </row>
-    <row r="240" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A240" s="145"/>
     </row>
-    <row r="241" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A241" s="145"/>
     </row>
-    <row r="242" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A242" s="145"/>
     </row>
-    <row r="243" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A243" s="145"/>
     </row>
-    <row r="244" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A244" s="145"/>
     </row>
-    <row r="245" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A245" s="145"/>
     </row>
-    <row r="246" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A246" s="145"/>
     </row>
-    <row r="247" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A247" s="145"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A248" s="145"/>
     </row>
-    <row r="249" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A249" s="145"/>
     </row>
-    <row r="250" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A250" s="145"/>
     </row>
-    <row r="251" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A251" s="145"/>
     </row>
-    <row r="252" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A252" s="145"/>
     </row>
-    <row r="253" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A253" s="145"/>
     </row>
-    <row r="254" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A254" s="145"/>
     </row>
-    <row r="255" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A255" s="145"/>
     </row>
-    <row r="256" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A256" s="145"/>
     </row>
-    <row r="257" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A257" s="145"/>
     </row>
-    <row r="258" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A258" s="145"/>
     </row>
-    <row r="259" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A259" s="145"/>
     </row>
-    <row r="260" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A260" s="145"/>
     </row>
-    <row r="261" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A261" s="145"/>
     </row>
-    <row r="262" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A262" s="145"/>
     </row>
-    <row r="263" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A263" s="145"/>
     </row>
-    <row r="264" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A264" s="145"/>
     </row>
-    <row r="265" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A265" s="145"/>
     </row>
-    <row r="266" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A266" s="145"/>
     </row>
-    <row r="267" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A267" s="145"/>
     </row>
-    <row r="268" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A268" s="145"/>
     </row>
-    <row r="269" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A269" s="145"/>
     </row>
-    <row r="270" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A270" s="145"/>
     </row>
-    <row r="271" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A271" s="145"/>
     </row>
-    <row r="272" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A272" s="145"/>
     </row>
-    <row r="273" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A273" s="145"/>
     </row>
-    <row r="274" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A274" s="145"/>
     </row>
-    <row r="275" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A275" s="145"/>
     </row>
-    <row r="276" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A276" s="145"/>
     </row>
-    <row r="277" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A277" s="145"/>
     </row>
-    <row r="278" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A278" s="145"/>
     </row>
-    <row r="279" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A279" s="145"/>
     </row>
-    <row r="280" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A280" s="145"/>
     </row>
-    <row r="281" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A281" s="145"/>
     </row>
-    <row r="282" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A282" s="145"/>
     </row>
-    <row r="283" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A283" s="145"/>
     </row>
-    <row r="284" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A284" s="145"/>
     </row>
-    <row r="285" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A285" s="145"/>
     </row>
-    <row r="286" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A286" s="145"/>
     </row>
-    <row r="287" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A287" s="145"/>
     </row>
-    <row r="288" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A288" s="145"/>
     </row>
-    <row r="289" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A289" s="145"/>
     </row>
-    <row r="290" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A290" s="145"/>
     </row>
-    <row r="291" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A291" s="145"/>
     </row>
-    <row r="292" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A292" s="145"/>
     </row>
-    <row r="293" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A293" s="145"/>
     </row>
-    <row r="294" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A294" s="145"/>
     </row>
-    <row r="295" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A295" s="145"/>
     </row>
-    <row r="296" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A296" s="145"/>
     </row>
-    <row r="297" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A297" s="145"/>
     </row>
-    <row r="298" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A298" s="145"/>
     </row>
-    <row r="299" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A299" s="145"/>
     </row>
-    <row r="300" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A300" s="145"/>
     </row>
-    <row r="301" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A301" s="145"/>
     </row>
-    <row r="302" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A302" s="145"/>
     </row>
-    <row r="303" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A303" s="145"/>
     </row>
-    <row r="304" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A304" s="145"/>
     </row>
-    <row r="305" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A305" s="145"/>
     </row>
-    <row r="306" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A306" s="145"/>
     </row>
-    <row r="307" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A307" s="145"/>
     </row>
-    <row r="308" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A308" s="145"/>
     </row>
-    <row r="309" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A309" s="145"/>
     </row>
-    <row r="310" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A310" s="145"/>
     </row>
-    <row r="311" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A311" s="145"/>
     </row>
-    <row r="312" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A312" s="145"/>
     </row>
-    <row r="313" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A313" s="145"/>
     </row>
-    <row r="314" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A314" s="145"/>
     </row>
-    <row r="315" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A315" s="145"/>
     </row>
-    <row r="316" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A316" s="145"/>
     </row>
-    <row r="317" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A317" s="145"/>
     </row>
-    <row r="318" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A318" s="145"/>
     </row>
-    <row r="319" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A319" s="145"/>
     </row>
-    <row r="320" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A320" s="145"/>
     </row>
-    <row r="321" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A321" s="145"/>
     </row>
-    <row r="322" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A322" s="145"/>
     </row>
-    <row r="323" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A323" s="145"/>
     </row>
-    <row r="324" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A324" s="145"/>
     </row>
-    <row r="325" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A325" s="145"/>
     </row>
-    <row r="326" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A326" s="145"/>
     </row>
-    <row r="327" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A327" s="145"/>
     </row>
-    <row r="328" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A328" s="145"/>
     </row>
-    <row r="329" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A329" s="145"/>
     </row>
-    <row r="330" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A330" s="145"/>
     </row>
-    <row r="331" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A331" s="145"/>
     </row>
-    <row r="332" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A332" s="145"/>
     </row>
-    <row r="333" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A333" s="145"/>
     </row>
-    <row r="334" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A334" s="145"/>
     </row>
-    <row r="335" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A335" s="145"/>
     </row>
-    <row r="336" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A336" s="145"/>
     </row>
-    <row r="337" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A337" s="145"/>
     </row>
-    <row r="338" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A338" s="145"/>
     </row>
-    <row r="339" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A339" s="145"/>
     </row>
-    <row r="340" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A340" s="145"/>
     </row>
-    <row r="341" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A341" s="145"/>
     </row>
-    <row r="342" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A342" s="145"/>
     </row>
-    <row r="343" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A343" s="145"/>
     </row>
-    <row r="344" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A344" s="145"/>
     </row>
-    <row r="345" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A345" s="145"/>
     </row>
-    <row r="346" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A346" s="145"/>
     </row>
-    <row r="347" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A347" s="145"/>
     </row>
-    <row r="348" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A348" s="145"/>
     </row>
-    <row r="349" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A349" s="145"/>
     </row>
-    <row r="350" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A350" s="145"/>
     </row>
-    <row r="351" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A351" s="145"/>
     </row>
-    <row r="352" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A352" s="145"/>
     </row>
-    <row r="353" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A353" s="145"/>
     </row>
-    <row r="354" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A354" s="145"/>
     </row>
-    <row r="355" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A355" s="145"/>
     </row>
-    <row r="356" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A356" s="145"/>
     </row>
-    <row r="357" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A357" s="145"/>
     </row>
-    <row r="358" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A358" s="145"/>
     </row>
-    <row r="359" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A359" s="145"/>
     </row>
-    <row r="360" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A360" s="145"/>
     </row>
-    <row r="361" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A361" s="145"/>
     </row>
-    <row r="362" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A362" s="145"/>
     </row>
-    <row r="363" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A363" s="145"/>
     </row>
-    <row r="364" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A364" s="145"/>
     </row>
-    <row r="365" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A365" s="145"/>
     </row>
-    <row r="366" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A366" s="145"/>
     </row>
-    <row r="367" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A367" s="145"/>
     </row>
-    <row r="368" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A368" s="145"/>
     </row>
-    <row r="369" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A369" s="145"/>
     </row>
-    <row r="370" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A370" s="145"/>
     </row>
-    <row r="371" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A371" s="145"/>
     </row>
-    <row r="372" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A372" s="145"/>
     </row>
-    <row r="373" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A373" s="145"/>
     </row>
-    <row r="374" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A374" s="145"/>
     </row>
-    <row r="375" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A375" s="145"/>
     </row>
-    <row r="376" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A376" s="145"/>
     </row>
-    <row r="377" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A377" s="145"/>
     </row>
-    <row r="378" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A378" s="145"/>
     </row>
-    <row r="379" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A379" s="145"/>
     </row>
-    <row r="380" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A380" s="145"/>
     </row>
-    <row r="381" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A381" s="145"/>
     </row>
-    <row r="382" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A382" s="145"/>
     </row>
-    <row r="383" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A383" s="145"/>
     </row>
-    <row r="384" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A384" s="145"/>
     </row>
-    <row r="385" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A385" s="145"/>
     </row>
-    <row r="386" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A386" s="145"/>
     </row>
-    <row r="387" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A387" s="145"/>
     </row>
-    <row r="388" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A388" s="145"/>
     </row>
-    <row r="389" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A389" s="145"/>
     </row>
-    <row r="390" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A390" s="145"/>
     </row>
-    <row r="391" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A391" s="145"/>
     </row>
-    <row r="392" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A392" s="145"/>
     </row>
-    <row r="393" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A393" s="145"/>
     </row>
-    <row r="394" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A394" s="145"/>
     </row>
-    <row r="395" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A395" s="145"/>
     </row>
-    <row r="396" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A396" s="145"/>
     </row>
-    <row r="397" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A397" s="145"/>
     </row>
-    <row r="398" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A398" s="145"/>
     </row>
-    <row r="399" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A399" s="145"/>
     </row>
-    <row r="400" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A400" s="145"/>
     </row>
-    <row r="401" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A401" s="145"/>
     </row>
-    <row r="402" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A402" s="145"/>
     </row>
-    <row r="403" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A403" s="145"/>
     </row>
-    <row r="404" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A404" s="145"/>
     </row>
-    <row r="405" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A405" s="145"/>
     </row>
-    <row r="406" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A406" s="145"/>
     </row>
-    <row r="407" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A407" s="145"/>
     </row>
-    <row r="408" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A408" s="145"/>
     </row>
-    <row r="409" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A409" s="145"/>
     </row>
-    <row r="410" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A410" s="145"/>
     </row>
-    <row r="411" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A411" s="145"/>
     </row>
-    <row r="412" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A412" s="145"/>
     </row>
-    <row r="413" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A413" s="145"/>
     </row>
-    <row r="414" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A414" s="145"/>
     </row>
-    <row r="415" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A415" s="145"/>
     </row>
-    <row r="416" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A416" s="145"/>
     </row>
-    <row r="417" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A417" s="145"/>
     </row>
-    <row r="418" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A418" s="145"/>
     </row>
-    <row r="419" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A419" s="145"/>
     </row>
-    <row r="420" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A420" s="145"/>
     </row>
-    <row r="421" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A421" s="145"/>
     </row>
-    <row r="422" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A422" s="145"/>
     </row>
-    <row r="423" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A423" s="145"/>
     </row>
-    <row r="424" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A424" s="145"/>
     </row>
-    <row r="425" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A425" s="145"/>
     </row>
-    <row r="426" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A426" s="145"/>
     </row>
-    <row r="427" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A427" s="145"/>
     </row>
-    <row r="428" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A428" s="145"/>
     </row>
-    <row r="429" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A429" s="145"/>
     </row>
-    <row r="430" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A430" s="145"/>
     </row>
-    <row r="431" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A431" s="145"/>
     </row>
-    <row r="432" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A432" s="145"/>
     </row>
-    <row r="433" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A433" s="145"/>
     </row>
-    <row r="434" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A434" s="145"/>
     </row>
-    <row r="435" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A435" s="145"/>
     </row>
-    <row r="436" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A436" s="145"/>
     </row>
-    <row r="437" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A437" s="145"/>
     </row>
-    <row r="438" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A438" s="145"/>
     </row>
-    <row r="439" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A439" s="145"/>
     </row>
-    <row r="440" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A440" s="145"/>
     </row>
-    <row r="441" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A441" s="145"/>
     </row>
-    <row r="442" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A442" s="145"/>
     </row>
-    <row r="443" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A443" s="145"/>
     </row>
-    <row r="444" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A444" s="145"/>
     </row>
-    <row r="445" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A445" s="145"/>
     </row>
-    <row r="446" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A446" s="145"/>
     </row>
-    <row r="447" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A447" s="145"/>
     </row>
-    <row r="448" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A448" s="145"/>
     </row>
-    <row r="449" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A449" s="145"/>
     </row>
-    <row r="450" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A450" s="145"/>
     </row>
-    <row r="451" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A451" s="145"/>
     </row>
-    <row r="452" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A452" s="145"/>
     </row>
-    <row r="453" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A453" s="145"/>
     </row>
-    <row r="454" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A454" s="145"/>
     </row>
-    <row r="455" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A455" s="145"/>
     </row>
-    <row r="456" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A456" s="145"/>
     </row>
-    <row r="457" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A457" s="145"/>
     </row>
-    <row r="458" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A458" s="145"/>
     </row>
-    <row r="459" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A459" s="145"/>
     </row>
-    <row r="460" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A460" s="145"/>
     </row>
-    <row r="461" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A461" s="145"/>
     </row>
-    <row r="462" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A462" s="145"/>
     </row>
-    <row r="463" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A463" s="145"/>
     </row>
-    <row r="464" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A464" s="145"/>
     </row>
-    <row r="465" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A465" s="145"/>
     </row>
-    <row r="466" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A466" s="145"/>
     </row>
-    <row r="467" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A467" s="145"/>
     </row>
-    <row r="468" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A468" s="145"/>
     </row>
-    <row r="469" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A469" s="145"/>
     </row>
-    <row r="470" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A470" s="145"/>
     </row>
-    <row r="471" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A471" s="145"/>
     </row>
-    <row r="472" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A472" s="145"/>
     </row>
-    <row r="473" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A473" s="145"/>
     </row>
-    <row r="474" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A474" s="145"/>
     </row>
-    <row r="475" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A475" s="145"/>
     </row>
-    <row r="476" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A476" s="145"/>
     </row>
-    <row r="477" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A477" s="145"/>
     </row>
-    <row r="478" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A478" s="145"/>
     </row>
-    <row r="479" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A479" s="145"/>
     </row>
-    <row r="480" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A480" s="145"/>
     </row>
-    <row r="481" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A481" s="145"/>
     </row>
-    <row r="482" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A482" s="145"/>
     </row>
-    <row r="483" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A483" s="145"/>
     </row>
-    <row r="484" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A484" s="145"/>
     </row>
-    <row r="485" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A485" s="145"/>
     </row>
-    <row r="486" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A486" s="145"/>
     </row>
-    <row r="487" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A487" s="145"/>
     </row>
-    <row r="488" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A488" s="145"/>
     </row>
-    <row r="489" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A489" s="145"/>
     </row>
-    <row r="490" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A490" s="145"/>
     </row>
-    <row r="491" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A491" s="145"/>
     </row>
-    <row r="492" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A492" s="145"/>
     </row>
-    <row r="493" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A493" s="145"/>
     </row>
-    <row r="494" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A494" s="145"/>
     </row>
-    <row r="495" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A495" s="145"/>
     </row>
-    <row r="496" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A496" s="145"/>
     </row>
-    <row r="497" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A497" s="145"/>
     </row>
-    <row r="498" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A498" s="145"/>
     </row>
-    <row r="499" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A499" s="145"/>
     </row>
-    <row r="500" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A500" s="145"/>
     </row>
-    <row r="501" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A501" s="145"/>
     </row>
-    <row r="502" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A502" s="145"/>
     </row>
-    <row r="503" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A503" s="145"/>
     </row>
-    <row r="504" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A504" s="145"/>
     </row>
-    <row r="505" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A505" s="145"/>
     </row>
-    <row r="506" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A506" s="145"/>
     </row>
-    <row r="507" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A507" s="145"/>
     </row>
-    <row r="508" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A508" s="145"/>
     </row>
-    <row r="509" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A509" s="145"/>
     </row>
-    <row r="510" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A510" s="145"/>
     </row>
-    <row r="511" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A511" s="145"/>
     </row>
-    <row r="512" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A512" s="145"/>
     </row>
-    <row r="513" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A513" s="145"/>
     </row>
-    <row r="514" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A514" s="145"/>
     </row>
-    <row r="515" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A515" s="145"/>
     </row>
-    <row r="516" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A516" s="145"/>
     </row>
-    <row r="517" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A517" s="145"/>
     </row>
-    <row r="518" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A518" s="145"/>
     </row>
-    <row r="519" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A519" s="145"/>
     </row>
-    <row r="520" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A520" s="145"/>
     </row>
-    <row r="521" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A521" s="145"/>
     </row>
-    <row r="522" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A522" s="145"/>
     </row>
-    <row r="523" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A523" s="145"/>
     </row>
-    <row r="524" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A524" s="145"/>
     </row>
-    <row r="525" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A525" s="145"/>
     </row>
-    <row r="526" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A526" s="145"/>
     </row>
-    <row r="527" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A527" s="145"/>
     </row>
-    <row r="528" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A528" s="145"/>
     </row>
-    <row r="529" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A529" s="145"/>
     </row>
-    <row r="530" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A530" s="145"/>
     </row>
-    <row r="531" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A531" s="145"/>
     </row>
-    <row r="532" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A532" s="145"/>
     </row>
-    <row r="533" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A533" s="145"/>
     </row>
-    <row r="534" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A534" s="145"/>
     </row>
-    <row r="535" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A535" s="145"/>
     </row>
-    <row r="536" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A536" s="145"/>
     </row>
-    <row r="537" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A537" s="145"/>
     </row>
-    <row r="538" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A538" s="145"/>
     </row>
-    <row r="539" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A539" s="145"/>
     </row>
-    <row r="540" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A540" s="145"/>
     </row>
-    <row r="541" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A541" s="145"/>
     </row>
-    <row r="542" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A542" s="145"/>
     </row>
-    <row r="543" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A543" s="145"/>
     </row>
-    <row r="544" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A544" s="145"/>
     </row>
-    <row r="545" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A545" s="145"/>
     </row>
-    <row r="546" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A546" s="145"/>
     </row>
-    <row r="547" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A547" s="145"/>
     </row>
-    <row r="548" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A548" s="145"/>
     </row>
-    <row r="549" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A549" s="145"/>
     </row>
-    <row r="550" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A550" s="145"/>
     </row>
-    <row r="551" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A551" s="145"/>
     </row>
-    <row r="552" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A552" s="145"/>
     </row>
-    <row r="553" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A553" s="145"/>
     </row>
-    <row r="554" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A554" s="145"/>
     </row>
-    <row r="555" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A555" s="145"/>
     </row>
-    <row r="556" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A556" s="145"/>
     </row>
-    <row r="557" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A557" s="145"/>
     </row>
-    <row r="558" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A558" s="145"/>
     </row>
-    <row r="559" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A559" s="145"/>
     </row>
-    <row r="560" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A560" s="145"/>
     </row>
-    <row r="561" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A561" s="145"/>
     </row>
-    <row r="562" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A562" s="145"/>
     </row>
-    <row r="563" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A563" s="145"/>
     </row>
-    <row r="564" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A564" s="145"/>
     </row>
-    <row r="565" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A565" s="145"/>
     </row>
-    <row r="566" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A566" s="145"/>
     </row>
-    <row r="567" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A567" s="145"/>
     </row>
-    <row r="568" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A568" s="145"/>
     </row>
-    <row r="569" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A569" s="145"/>
     </row>
-    <row r="570" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A570" s="145"/>
     </row>
-    <row r="571" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A571" s="145"/>
     </row>
-    <row r="572" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A572" s="145"/>
     </row>
-    <row r="573" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A573" s="145"/>
     </row>
-    <row r="574" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A574" s="145"/>
     </row>
-    <row r="575" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A575" s="145"/>
     </row>
-    <row r="576" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A576" s="145"/>
     </row>
-    <row r="577" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A577" s="145"/>
     </row>
-    <row r="578" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A578" s="145"/>
     </row>
-    <row r="579" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A579" s="145"/>
     </row>
-    <row r="580" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A580" s="145"/>
     </row>
-    <row r="581" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A581" s="145"/>
     </row>
-    <row r="582" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A582" s="145"/>
     </row>
-    <row r="583" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A583" s="145"/>
     </row>
-    <row r="584" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A584" s="145"/>
     </row>
-    <row r="585" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A585" s="145"/>
     </row>
-    <row r="586" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A586" s="145"/>
     </row>
-    <row r="587" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A587" s="145"/>
     </row>
-    <row r="588" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A588" s="145"/>
     </row>
-    <row r="589" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A589" s="145"/>
     </row>
-    <row r="590" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A590" s="145"/>
     </row>
-    <row r="591" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A591" s="145"/>
     </row>
-    <row r="592" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A592" s="145"/>
     </row>
-    <row r="593" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A593" s="145"/>
     </row>
-    <row r="594" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A594" s="145"/>
     </row>
-    <row r="595" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A595" s="145"/>
     </row>
-    <row r="596" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A596" s="145"/>
     </row>
-    <row r="597" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A597" s="145"/>
     </row>
-    <row r="598" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A598" s="145"/>
     </row>
-    <row r="599" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A599" s="145"/>
     </row>
-    <row r="600" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A600" s="145"/>
     </row>
-    <row r="601" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A601" s="145"/>
     </row>
-    <row r="602" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A602" s="145"/>
     </row>
-    <row r="603" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A603" s="145"/>
     </row>
-    <row r="604" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A604" s="145"/>
     </row>
-    <row r="605" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A605" s="145"/>
     </row>
-    <row r="606" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A606" s="145"/>
     </row>
-    <row r="607" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A607" s="145"/>
     </row>
-    <row r="608" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A608" s="145"/>
     </row>
-    <row r="609" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A609" s="145"/>
     </row>
-    <row r="610" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A610" s="145"/>
     </row>
-    <row r="611" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A611" s="145"/>
     </row>
-    <row r="612" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A612" s="145"/>
     </row>
-    <row r="613" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A613" s="145"/>
     </row>
-    <row r="614" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A614" s="145"/>
     </row>
-    <row r="615" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A615" s="145"/>
     </row>
-    <row r="616" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A616" s="145"/>
     </row>
-    <row r="617" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A617" s="145"/>
     </row>
-    <row r="618" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A618" s="145"/>
     </row>
-    <row r="619" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A619" s="145"/>
     </row>
-    <row r="620" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A620" s="145"/>
     </row>
-    <row r="621" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A621" s="145"/>
     </row>
-    <row r="622" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A622" s="145"/>
     </row>
-    <row r="623" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A623" s="145"/>
     </row>
-    <row r="624" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A624" s="145"/>
     </row>
-    <row r="625" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A625" s="145"/>
     </row>
-    <row r="626" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A626" s="145"/>
     </row>
-    <row r="627" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A627" s="145"/>
     </row>
-    <row r="628" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A628" s="145"/>
     </row>
-    <row r="629" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A629" s="145"/>
     </row>
-    <row r="630" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A630" s="145"/>
     </row>
-    <row r="631" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A631" s="145"/>
     </row>
-    <row r="632" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A632" s="145"/>
     </row>
-    <row r="633" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A633" s="145"/>
     </row>
-    <row r="634" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A634" s="145"/>
     </row>
-    <row r="635" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A635" s="145"/>
     </row>
-    <row r="636" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A636" s="145"/>
     </row>
-    <row r="637" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A637" s="145"/>
     </row>
-    <row r="638" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A638" s="145"/>
     </row>
-    <row r="639" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A639" s="145"/>
     </row>
-    <row r="640" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A640" s="145"/>
     </row>
-    <row r="641" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A641" s="145"/>
     </row>
-    <row r="642" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A642" s="145"/>
     </row>
-    <row r="643" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A643" s="145"/>
     </row>
-    <row r="644" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A644" s="145"/>
     </row>
-    <row r="645" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A645" s="145"/>
     </row>
-    <row r="646" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A646" s="145"/>
     </row>
-    <row r="647" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A647" s="145"/>
     </row>
-    <row r="648" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A648" s="145"/>
     </row>
-    <row r="649" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A649" s="145"/>
     </row>
-    <row r="650" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A650" s="145"/>
     </row>
-    <row r="651" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A651" s="145"/>
     </row>
-    <row r="652" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A652" s="145"/>
     </row>
-    <row r="653" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A653" s="145"/>
     </row>
-    <row r="654" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A654" s="145"/>
     </row>
-    <row r="655" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A655" s="145"/>
     </row>
-    <row r="656" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A656" s="145"/>
     </row>
-    <row r="657" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A657" s="145"/>
     </row>
-    <row r="658" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A658" s="145"/>
     </row>
-    <row r="659" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A659" s="145"/>
     </row>
-    <row r="660" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A660" s="145"/>
     </row>
-    <row r="661" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A661" s="145"/>
     </row>
-    <row r="662" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A662" s="145"/>
     </row>
-    <row r="663" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A663" s="145"/>
     </row>
-    <row r="664" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A664" s="145"/>
     </row>
-    <row r="665" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A665" s="145"/>
     </row>
-    <row r="666" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A666" s="145"/>
     </row>
-    <row r="667" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A667" s="145"/>
     </row>
-    <row r="668" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A668" s="145"/>
     </row>
-    <row r="669" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A669" s="145"/>
     </row>
-    <row r="670" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A670" s="145"/>
     </row>
-    <row r="671" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A671" s="145"/>
     </row>
-    <row r="672" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A672" s="145"/>
     </row>
-    <row r="673" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A673" s="145"/>
     </row>
-    <row r="674" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A674" s="145"/>
     </row>
-    <row r="675" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A675" s="145"/>
     </row>
-    <row r="676" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A676" s="145"/>
     </row>
-    <row r="677" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A677" s="145"/>
     </row>
-    <row r="678" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A678" s="145"/>
     </row>
-    <row r="679" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A679" s="145"/>
     </row>
-    <row r="680" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A680" s="145"/>
     </row>
-    <row r="681" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A681" s="145"/>
     </row>
-    <row r="682" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A682" s="145"/>
     </row>
-    <row r="683" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A683" s="145"/>
     </row>
-    <row r="684" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A684" s="145"/>
     </row>
-    <row r="685" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A685" s="145"/>
     </row>
-    <row r="686" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A686" s="145"/>
     </row>
-    <row r="687" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A687" s="145"/>
     </row>
-    <row r="688" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A688" s="145"/>
     </row>
-    <row r="689" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A689" s="145"/>
     </row>
-    <row r="690" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A690" s="145"/>
     </row>
-    <row r="691" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A691" s="145"/>
     </row>
-    <row r="692" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A692" s="145"/>
     </row>
-    <row r="693" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A693" s="145"/>
     </row>
-    <row r="694" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A694" s="145"/>
     </row>
-    <row r="695" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A695" s="145"/>
     </row>
-    <row r="696" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A696" s="145"/>
     </row>
-    <row r="697" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A697" s="145"/>
     </row>
-    <row r="698" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A698" s="145"/>
     </row>
-    <row r="699" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A699" s="145"/>
     </row>
-    <row r="700" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A700" s="145"/>
     </row>
-    <row r="701" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A701" s="145"/>
     </row>
-    <row r="702" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A702" s="145"/>
     </row>
-    <row r="703" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A703" s="145"/>
     </row>
-    <row r="704" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A704" s="145"/>
     </row>
-    <row r="705" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A705" s="145"/>
     </row>
-    <row r="706" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A706" s="145"/>
     </row>
-    <row r="707" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A707" s="145"/>
     </row>
-    <row r="708" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A708" s="145"/>
     </row>
-    <row r="709" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A709" s="145"/>
     </row>
-    <row r="710" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A710" s="145"/>
     </row>
-    <row r="711" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A711" s="145"/>
     </row>
-    <row r="712" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A712" s="145"/>
     </row>
-    <row r="713" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A713" s="145"/>
     </row>
-    <row r="714" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A714" s="145"/>
     </row>
-    <row r="715" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A715" s="145"/>
     </row>
-    <row r="716" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A716" s="145"/>
     </row>
-    <row r="717" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A717" s="145"/>
     </row>
-    <row r="718" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A718" s="145"/>
     </row>
-    <row r="719" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A719" s="145"/>
     </row>
-    <row r="720" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A720" s="145"/>
     </row>
-    <row r="721" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A721" s="145"/>
     </row>
-    <row r="722" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A722" s="145"/>
     </row>
-    <row r="723" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A723" s="145"/>
     </row>
-    <row r="724" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A724" s="145"/>
     </row>
-    <row r="725" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A725" s="145"/>
     </row>
-    <row r="726" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A726" s="145"/>
     </row>
-    <row r="727" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A727" s="145"/>
     </row>
-    <row r="728" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A728" s="145"/>
     </row>
-    <row r="729" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A729" s="145"/>
     </row>
-    <row r="730" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A730" s="145"/>
     </row>
-    <row r="731" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A731" s="145"/>
     </row>
-    <row r="732" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A732" s="145"/>
     </row>
-    <row r="733" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A733" s="145"/>
     </row>
-    <row r="734" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A734" s="145"/>
     </row>
-    <row r="735" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A735" s="145"/>
     </row>
-    <row r="736" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A736" s="145"/>
     </row>
-    <row r="737" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A737" s="145"/>
     </row>
-    <row r="738" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A738" s="145"/>
     </row>
-    <row r="739" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A739" s="145"/>
     </row>
-    <row r="740" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A740" s="145"/>
     </row>
-    <row r="741" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A741" s="145"/>
     </row>
-    <row r="742" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A742" s="145"/>
     </row>
-    <row r="743" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A743" s="145"/>
     </row>
-    <row r="744" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A744" s="145"/>
     </row>
-    <row r="745" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A745" s="145"/>
     </row>
-    <row r="746" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A746" s="145"/>
     </row>
-    <row r="747" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A747" s="145"/>
     </row>
-    <row r="748" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A748" s="145"/>
     </row>
-    <row r="749" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A749" s="145"/>
     </row>
-    <row r="750" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A750" s="145"/>
     </row>
-    <row r="751" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A751" s="145"/>
     </row>
-    <row r="752" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A752" s="145"/>
     </row>
-    <row r="753" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A753" s="145"/>
     </row>
-    <row r="754" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A754" s="145"/>
     </row>
-    <row r="755" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A755" s="145"/>
     </row>
-    <row r="756" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A756" s="145"/>
     </row>
-    <row r="757" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A757" s="145"/>
     </row>
-    <row r="758" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A758" s="145"/>
     </row>
-    <row r="759" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A759" s="145"/>
     </row>
-    <row r="760" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A760" s="145"/>
     </row>
-    <row r="761" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A761" s="145"/>
     </row>
-    <row r="762" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A762" s="145"/>
     </row>
-    <row r="763" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A763" s="145"/>
     </row>
-    <row r="764" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A764" s="145"/>
     </row>
-    <row r="765" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A765" s="145"/>
     </row>
-    <row r="766" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A766" s="145"/>
     </row>
-    <row r="767" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A767" s="145"/>
     </row>
-    <row r="768" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A768" s="145"/>
     </row>
-    <row r="769" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A769" s="145"/>
     </row>
-    <row r="770" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A770" s="145"/>
     </row>
-    <row r="771" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A771" s="145"/>
     </row>
-    <row r="772" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A772" s="145"/>
     </row>
-    <row r="773" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A773" s="145"/>
     </row>
-    <row r="774" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A774" s="145"/>
     </row>
-    <row r="775" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A775" s="145"/>
     </row>
-    <row r="776" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A776" s="145"/>
     </row>
-    <row r="777" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A777" s="145"/>
     </row>
-    <row r="778" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A778" s="145"/>
     </row>
-    <row r="779" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A779" s="145"/>
     </row>
-    <row r="780" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A780" s="145"/>
     </row>
-    <row r="781" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A781" s="145"/>
     </row>
-    <row r="782" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A782" s="145"/>
     </row>
-    <row r="783" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A783" s="145"/>
     </row>
-    <row r="784" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A784" s="145"/>
     </row>
-    <row r="785" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A785" s="145"/>
     </row>
-    <row r="786" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A786" s="145"/>
     </row>
-    <row r="787" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A787" s="145"/>
     </row>
-    <row r="788" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A788" s="145"/>
     </row>
-    <row r="789" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A789" s="145"/>
     </row>
-    <row r="790" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A790" s="145"/>
     </row>
-    <row r="791" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A791" s="145"/>
     </row>
-    <row r="792" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A792" s="145"/>
     </row>
-    <row r="793" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A793" s="145"/>
     </row>
-    <row r="794" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A794" s="145"/>
     </row>
-    <row r="795" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A795" s="145"/>
     </row>
-    <row r="796" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A796" s="145"/>
     </row>
-    <row r="797" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A797" s="145"/>
     </row>
-    <row r="798" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A798" s="145"/>
     </row>
-    <row r="799" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A799" s="145"/>
     </row>
-    <row r="800" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A800" s="145"/>
     </row>
-    <row r="801" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A801" s="145"/>
     </row>
-    <row r="802" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A802" s="145"/>
     </row>
-    <row r="803" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A803" s="145"/>
     </row>
-    <row r="804" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A804" s="145"/>
     </row>
-    <row r="805" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A805" s="145"/>
     </row>
-    <row r="806" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A806" s="145"/>
     </row>
-    <row r="807" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A807" s="145"/>
     </row>
-    <row r="808" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A808" s="145"/>
     </row>
-    <row r="809" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A809" s="145"/>
     </row>
-    <row r="810" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A810" s="145"/>
     </row>
-    <row r="811" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A811" s="145"/>
     </row>
-    <row r="812" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A812" s="145"/>
     </row>
-    <row r="813" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A813" s="145"/>
     </row>
-    <row r="814" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A814" s="145"/>
     </row>
-    <row r="815" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A815" s="145"/>
     </row>
-    <row r="816" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A816" s="145"/>
     </row>
-    <row r="817" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A817" s="145"/>
     </row>
-    <row r="818" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A818" s="145"/>
     </row>
-    <row r="819" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A819" s="145"/>
     </row>
-    <row r="820" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A820" s="145"/>
     </row>
-    <row r="821" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A821" s="145"/>
     </row>
-    <row r="822" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A822" s="145"/>
     </row>
-    <row r="823" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A823" s="145"/>
     </row>
-    <row r="824" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A824" s="145"/>
     </row>
-    <row r="825" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A825" s="145"/>
     </row>
-    <row r="826" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A826" s="145"/>
     </row>
-    <row r="827" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A827" s="145"/>
     </row>
-    <row r="828" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A828" s="145"/>
     </row>
-    <row r="829" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A829" s="145"/>
     </row>
-    <row r="830" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A830" s="145"/>
     </row>
-    <row r="831" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A831" s="145"/>
     </row>
-    <row r="832" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A832" s="145"/>
     </row>
-    <row r="833" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A833" s="145"/>
     </row>
-    <row r="834" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A834" s="145"/>
     </row>
-    <row r="835" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A835" s="145"/>
     </row>
-    <row r="836" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A836" s="145"/>
     </row>
-    <row r="837" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A837" s="145"/>
     </row>
-    <row r="838" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A838" s="145"/>
     </row>
-    <row r="839" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A839" s="145"/>
     </row>
-    <row r="840" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A840" s="145"/>
     </row>
-    <row r="841" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A841" s="145"/>
     </row>
-    <row r="842" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A842" s="145"/>
     </row>
-    <row r="843" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A843" s="145"/>
     </row>
-    <row r="844" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A844" s="145"/>
     </row>
-    <row r="845" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A845" s="145"/>
     </row>
-    <row r="846" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A846" s="145"/>
     </row>
-    <row r="847" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A847" s="145"/>
     </row>
-    <row r="848" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A848" s="145"/>
     </row>
-    <row r="849" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A849" s="145"/>
     </row>
-    <row r="850" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A850" s="145"/>
     </row>
-    <row r="851" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A851" s="145"/>
     </row>
-    <row r="852" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A852" s="145"/>
     </row>
-    <row r="853" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A853" s="145"/>
     </row>
-    <row r="854" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A854" s="145"/>
     </row>
-    <row r="855" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A855" s="145"/>
     </row>
-    <row r="856" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A856" s="145"/>
     </row>
-    <row r="857" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A857" s="145"/>
     </row>
-    <row r="858" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A858" s="145"/>
     </row>
-    <row r="859" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A859" s="145"/>
     </row>
-    <row r="860" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A860" s="145"/>
     </row>
-    <row r="861" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A861" s="145"/>
     </row>
-    <row r="862" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A862" s="145"/>
     </row>
-    <row r="863" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A863" s="145"/>
     </row>
-    <row r="864" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A864" s="145"/>
     </row>
-    <row r="865" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A865" s="145"/>
     </row>
-    <row r="866" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A866" s="145"/>
     </row>
-    <row r="867" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A867" s="145"/>
     </row>
-    <row r="868" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A868" s="145"/>
     </row>
-    <row r="869" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A869" s="145"/>
     </row>
-    <row r="870" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A870" s="145"/>
     </row>
-    <row r="871" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A871" s="145"/>
     </row>
-    <row r="872" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A872" s="145"/>
     </row>
-    <row r="873" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A873" s="145"/>
     </row>
-    <row r="874" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A874" s="145"/>
     </row>
-    <row r="875" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A875" s="145"/>
     </row>
-    <row r="876" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A876" s="145"/>
     </row>
-    <row r="877" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A877" s="145"/>
     </row>
-    <row r="878" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A878" s="145"/>
     </row>
-    <row r="879" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A879" s="145"/>
     </row>
-    <row r="880" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A880" s="145"/>
     </row>
-    <row r="881" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A881" s="145"/>
     </row>
-    <row r="882" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A882" s="145"/>
     </row>
-    <row r="883" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A883" s="145"/>
     </row>
-    <row r="884" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A884" s="145"/>
     </row>
-    <row r="885" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A885" s="145"/>
     </row>
-    <row r="886" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A886" s="145"/>
     </row>
-    <row r="887" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A887" s="145"/>
     </row>
-    <row r="888" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A888" s="145"/>
     </row>
-    <row r="889" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A889" s="145"/>
     </row>
-    <row r="890" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A890" s="145"/>
     </row>
-    <row r="891" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A891" s="145"/>
     </row>
-    <row r="892" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A892" s="145"/>
     </row>
-    <row r="893" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A893" s="145"/>
     </row>
-    <row r="894" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A894" s="145"/>
     </row>
-    <row r="895" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A895" s="145"/>
     </row>
-    <row r="896" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="896" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A896" s="145"/>
     </row>
-    <row r="897" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A897" s="145"/>
     </row>
-    <row r="898" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A898" s="145"/>
     </row>
-    <row r="899" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A899" s="145"/>
     </row>
-    <row r="900" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="900" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A900" s="145"/>
     </row>
-    <row r="901" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A901" s="145"/>
     </row>
-    <row r="902" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A902" s="145"/>
     </row>
-    <row r="903" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A903" s="145"/>
     </row>
-    <row r="904" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A904" s="145"/>
     </row>
-    <row r="905" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="905" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A905" s="145"/>
     </row>
-    <row r="906" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="906" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A906" s="145"/>
     </row>
-    <row r="907" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A907" s="145"/>
     </row>
-    <row r="908" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="908" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A908" s="145"/>
     </row>
-    <row r="909" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A909" s="145"/>
     </row>
-    <row r="910" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="910" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A910" s="145"/>
     </row>
-    <row r="911" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A911" s="145"/>
     </row>
-    <row r="912" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A912" s="145"/>
     </row>
-    <row r="913" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="913" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A913" s="145"/>
     </row>
-    <row r="914" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="914" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A914" s="145"/>
     </row>
-    <row r="915" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="915" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A915" s="145"/>
     </row>
-    <row r="916" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A916" s="145"/>
     </row>
-    <row r="917" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="917" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A917" s="145"/>
     </row>
-    <row r="918" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="918" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A918" s="145"/>
     </row>
-    <row r="919" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="919" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A919" s="145"/>
     </row>
-    <row r="920" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="920" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A920" s="145"/>
     </row>
-    <row r="921" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="921" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A921" s="145"/>
     </row>
-    <row r="922" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="922" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A922" s="145"/>
     </row>
-    <row r="923" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="923" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A923" s="145"/>
     </row>
-    <row r="924" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="924" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A924" s="145"/>
     </row>
-    <row r="925" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="925" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A925" s="145"/>
     </row>
-    <row r="926" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="926" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A926" s="145"/>
     </row>
-    <row r="927" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="927" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A927" s="145"/>
     </row>
-    <row r="928" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="928" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A928" s="145"/>
     </row>
-    <row r="929" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="929" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A929" s="145"/>
     </row>
-    <row r="930" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="930" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A930" s="145"/>
     </row>
-    <row r="931" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="931" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A931" s="145"/>
     </row>
-    <row r="932" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="932" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A932" s="145"/>
     </row>
-    <row r="933" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="933" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A933" s="145"/>
     </row>
-    <row r="934" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="934" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A934" s="145"/>
     </row>
-    <row r="935" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="935" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A935" s="145"/>
     </row>
-    <row r="936" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="936" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A936" s="145"/>
     </row>
-    <row r="937" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="937" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A937" s="145"/>
     </row>
-    <row r="938" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="938" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A938" s="145"/>
     </row>
-    <row r="939" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="939" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A939" s="145"/>
     </row>
-    <row r="940" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="940" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A940" s="145"/>
     </row>
-    <row r="941" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="941" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A941" s="145"/>
     </row>
-    <row r="942" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="942" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A942" s="145"/>
     </row>
-    <row r="943" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="943" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A943" s="145"/>
     </row>
-    <row r="944" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="944" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A944" s="145"/>
     </row>
-    <row r="945" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="945" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A945" s="145"/>
     </row>
-    <row r="946" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="946" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A946" s="145"/>
     </row>
-    <row r="947" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="947" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A947" s="145"/>
     </row>
-    <row r="948" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="948" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A948" s="145"/>
     </row>
-    <row r="949" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="949" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A949" s="145"/>
     </row>
-    <row r="950" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="950" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A950" s="145"/>
     </row>
-    <row r="951" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="951" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A951" s="145"/>
     </row>
-    <row r="952" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="952" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A952" s="145"/>
     </row>
-    <row r="953" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="953" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A953" s="145"/>
     </row>
-    <row r="954" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="954" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A954" s="145"/>
     </row>
-    <row r="955" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="955" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A955" s="145"/>
     </row>
-    <row r="956" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="956" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A956" s="145"/>
     </row>
-    <row r="957" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="957" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A957" s="145"/>
     </row>
-    <row r="958" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="958" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A958" s="145"/>
     </row>
-    <row r="959" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="959" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A959" s="145"/>
     </row>
-    <row r="960" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="960" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A960" s="145"/>
     </row>
-    <row r="961" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="961" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A961" s="145"/>
     </row>
-    <row r="962" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="962" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A962" s="145"/>
     </row>
-    <row r="963" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="963" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A963" s="145"/>
     </row>
-    <row r="964" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="964" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A964" s="145"/>
     </row>
-    <row r="965" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="965" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A965" s="145"/>
     </row>
-    <row r="966" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="966" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A966" s="145"/>
     </row>
-    <row r="967" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="967" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A967" s="145"/>
     </row>
-    <row r="968" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="968" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A968" s="145"/>
     </row>
-    <row r="969" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="969" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A969" s="145"/>
     </row>
-    <row r="970" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="970" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A970" s="145"/>
     </row>
-    <row r="971" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="971" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A971" s="145"/>
     </row>
-    <row r="972" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="972" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A972" s="145"/>
     </row>
-    <row r="973" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="973" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A973" s="145"/>
     </row>
-    <row r="974" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="974" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A974" s="145"/>
     </row>
-    <row r="975" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="975" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A975" s="145"/>
     </row>
-    <row r="976" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="976" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A976" s="145"/>
     </row>
-    <row r="977" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="977" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A977" s="145"/>
     </row>
-    <row r="978" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="978" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A978" s="145"/>
     </row>
-    <row r="979" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="979" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A979" s="145"/>
     </row>
-    <row r="980" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="980" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A980" s="145"/>
     </row>
-    <row r="981" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="981" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A981" s="145"/>
     </row>
-    <row r="982" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="982" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A982" s="145"/>
     </row>
-    <row r="983" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="983" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A983" s="145"/>
     </row>
-    <row r="984" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="984" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A984" s="145"/>
     </row>
-    <row r="985" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="985" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A985" s="145"/>
     </row>
-    <row r="986" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="986" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A986" s="145"/>
     </row>
-    <row r="987" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="987" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A987" s="145"/>
     </row>
-    <row r="988" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="988" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A988" s="145"/>
     </row>
-    <row r="989" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="989" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A989" s="145"/>
     </row>
-    <row r="990" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="990" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A990" s="145"/>
     </row>
-    <row r="991" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="991" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A991" s="145"/>
     </row>
-    <row r="992" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="992" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A992" s="145"/>
     </row>
-    <row r="993" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="993" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A993" s="145"/>
     </row>
-    <row r="994" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="994" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A994" s="145"/>
     </row>
-    <row r="995" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="995" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A995" s="145"/>
     </row>
-    <row r="996" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="996" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A996" s="145"/>
     </row>
-    <row r="997" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="997" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A997" s="145"/>
     </row>
-    <row r="998" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="998" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A998" s="145"/>
     </row>
-    <row r="999" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="999" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A999" s="145"/>
     </row>
-    <row r="1000" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1000" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1000" s="145"/>
     </row>
   </sheetData>
